--- a/data/GroupSpec_orthorhombic.xlsx
+++ b/data/GroupSpec_orthorhombic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10892CCD-FDC6-AF42-996C-33E19221DF93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B1E14-C804-8E42-9270-568654339CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="760" windowWidth="24700" windowHeight="17960" activeTab="3" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="1460" yWindow="-20140" windowWidth="24700" windowHeight="17940" activeTab="2" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -1238,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9EF93-9C26-5E4D-979F-BFF17FE810E6}">
   <dimension ref="A1:K228"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A168" sqref="A168:A170"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8008,7 +8008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA753F3D-C6B3-CF4C-AC0A-0702F927E144}">
   <dimension ref="A1:K228"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A137" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A184" sqref="A184:XFD184"/>
     </sheetView>
   </sheetViews>
@@ -14782,8 +14782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D154C47-0A69-1C46-8595-34C42B00C9A5}">
   <dimension ref="A1:K257"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20814,7 +20814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC97E7B2-CD49-3E49-A19E-E59CA308682C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/data/GroupSpec_orthorhombic.xlsx
+++ b/data/GroupSpec_orthorhombic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285B1E14-C804-8E42-9270-568654339CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B94F178-8715-F24E-8D4B-F7D19A092D70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="-20140" windowWidth="24700" windowHeight="17940" activeTab="2" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
@@ -8008,7 +8008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA753F3D-C6B3-CF4C-AC0A-0702F927E144}">
   <dimension ref="A1:K228"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A184" sqref="A184:XFD184"/>
     </sheetView>
   </sheetViews>
@@ -14782,8 +14782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D154C47-0A69-1C46-8595-34C42B00C9A5}">
   <dimension ref="A1:K257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/GroupSpec_orthorhombic.xlsx
+++ b/data/GroupSpec_orthorhombic.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE12982-8A2F-7C49-AD22-F1CA896CF1A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FB9E4-9716-DC44-9677-916E8C162BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="27340" windowHeight="17820" activeTab="2" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="27340" windowHeight="17760" activeTab="1" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
-    <sheet name="Groups V3" sheetId="6" r:id="rId2"/>
-    <sheet name="Groups V4" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Groups V4" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="238">
   <si>
     <t>spacegroup number</t>
   </si>
@@ -696,48 +694,6 @@
     <t>h = 4n</t>
   </si>
   <si>
-    <t>ortho_12</t>
-  </si>
-  <si>
-    <t>ortho_13</t>
-  </si>
-  <si>
-    <t>ortho_14</t>
-  </si>
-  <si>
-    <t>ortho_00</t>
-  </si>
-  <si>
-    <t>ortho_01</t>
-  </si>
-  <si>
-    <t>ortho_02</t>
-  </si>
-  <si>
-    <t>ortho_03</t>
-  </si>
-  <si>
-    <t>ortho_04</t>
-  </si>
-  <si>
-    <t>ortho_05</t>
-  </si>
-  <si>
-    <t>ortho_06</t>
-  </si>
-  <si>
-    <t>ortho_07</t>
-  </si>
-  <si>
-    <t>ortho_08</t>
-  </si>
-  <si>
-    <t>ortho_09</t>
-  </si>
-  <si>
-    <t>ortho_15</t>
-  </si>
-  <si>
     <t>split 0</t>
   </si>
   <si>
@@ -747,43 +703,43 @@
     <t>split 2</t>
   </si>
   <si>
-    <t>orthorhombic_00</t>
-  </si>
-  <si>
-    <t>orthorhombic_01</t>
-  </si>
-  <si>
-    <t>orthorhombic_02</t>
-  </si>
-  <si>
-    <t>orthorhombic_03</t>
-  </si>
-  <si>
-    <t>orthorhombic_04</t>
-  </si>
-  <si>
-    <t>orthorhombic_05</t>
-  </si>
-  <si>
-    <t>orthorhombic_06</t>
-  </si>
-  <si>
-    <t>orthorhombic_07</t>
-  </si>
-  <si>
-    <t>orthorhombic_08</t>
-  </si>
-  <si>
-    <t>orthorhombic_09</t>
-  </si>
-  <si>
-    <t>orthorhombic_10</t>
-  </si>
-  <si>
-    <t>orthorhombic_11</t>
-  </si>
-  <si>
-    <t>orthorhombic_12</t>
+    <t>oF_00</t>
+  </si>
+  <si>
+    <t>oF_01</t>
+  </si>
+  <si>
+    <t>oI_00</t>
+  </si>
+  <si>
+    <t>oC_00</t>
+  </si>
+  <si>
+    <t>oP_00</t>
+  </si>
+  <si>
+    <t>oP_01</t>
+  </si>
+  <si>
+    <t>oP_02</t>
+  </si>
+  <si>
+    <t>oP_03</t>
+  </si>
+  <si>
+    <t>oP_04</t>
+  </si>
+  <si>
+    <t>oP_05</t>
+  </si>
+  <si>
+    <t>oP_06</t>
+  </si>
+  <si>
+    <t>oP_07</t>
+  </si>
+  <si>
+    <t>oP_08</t>
   </si>
 </sst>
 </file>
@@ -6286,4655 +6242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABE1C48-01E2-EE46-AFE6-B5883DE410B7}">
-  <dimension ref="A1:K212"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D2">
-        <f>SUM(D3:D6)</f>
-        <v>3883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3">
-        <v>852</v>
-      </c>
-      <c r="F3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D4">
-        <v>2060</v>
-      </c>
-      <c r="F4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" t="s">
-        <v>221</v>
-      </c>
-      <c r="J5" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6">
-        <v>844</v>
-      </c>
-      <c r="F6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H6" t="s">
-        <v>192</v>
-      </c>
-      <c r="I6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J6" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <f>SUM(D9:D22)</f>
-        <v>11339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9">
-        <v>235</v>
-      </c>
-      <c r="I9" t="s">
-        <v>187</v>
-      </c>
-      <c r="J9" t="s">
-        <v>188</v>
-      </c>
-      <c r="K9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" t="s">
-        <v>188</v>
-      </c>
-      <c r="K11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>71</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12">
-        <v>205</v>
-      </c>
-      <c r="I12" t="s">
-        <v>187</v>
-      </c>
-      <c r="J12" t="s">
-        <v>188</v>
-      </c>
-      <c r="K12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13">
-        <v>9618</v>
-      </c>
-      <c r="I13" t="s">
-        <v>187</v>
-      </c>
-      <c r="J13" t="s">
-        <v>188</v>
-      </c>
-      <c r="K13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14">
-        <v>91</v>
-      </c>
-      <c r="I14" t="s">
-        <v>187</v>
-      </c>
-      <c r="J14" t="s">
-        <v>188</v>
-      </c>
-      <c r="K14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D15">
-        <v>258</v>
-      </c>
-      <c r="I15" t="s">
-        <v>187</v>
-      </c>
-      <c r="J15" t="s">
-        <v>188</v>
-      </c>
-      <c r="K15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16">
-        <v>153</v>
-      </c>
-      <c r="I16" t="s">
-        <v>187</v>
-      </c>
-      <c r="J16" t="s">
-        <v>188</v>
-      </c>
-      <c r="K16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>58</v>
-      </c>
-      <c r="B17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17">
-        <v>254</v>
-      </c>
-      <c r="I17" t="s">
-        <v>187</v>
-      </c>
-      <c r="J17" t="s">
-        <v>188</v>
-      </c>
-      <c r="K17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18">
-        <v>42</v>
-      </c>
-      <c r="I18" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19">
-        <v>256</v>
-      </c>
-      <c r="I19" t="s">
-        <v>187</v>
-      </c>
-      <c r="J19" t="s">
-        <v>188</v>
-      </c>
-      <c r="K19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s">
-        <v>187</v>
-      </c>
-      <c r="J20" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>187</v>
-      </c>
-      <c r="J21" t="s">
-        <v>188</v>
-      </c>
-      <c r="K21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22">
-        <v>70</v>
-      </c>
-      <c r="I22" t="s">
-        <v>187</v>
-      </c>
-      <c r="J22" t="s">
-        <v>188</v>
-      </c>
-      <c r="K22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D24">
-        <f>SUM(D25:D34)</f>
-        <v>9424</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>227</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>190</v>
-      </c>
-      <c r="I25" t="s">
-        <v>187</v>
-      </c>
-      <c r="J25" t="s">
-        <v>188</v>
-      </c>
-      <c r="K25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26">
-        <v>103</v>
-      </c>
-      <c r="F26" t="s">
-        <v>190</v>
-      </c>
-      <c r="I26" t="s">
-        <v>187</v>
-      </c>
-      <c r="J26" t="s">
-        <v>188</v>
-      </c>
-      <c r="K26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="F27" t="s">
-        <v>190</v>
-      </c>
-      <c r="I27" t="s">
-        <v>187</v>
-      </c>
-      <c r="J27" t="s">
-        <v>188</v>
-      </c>
-      <c r="K27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="F28" t="s">
-        <v>190</v>
-      </c>
-      <c r="I28" t="s">
-        <v>187</v>
-      </c>
-      <c r="J28" t="s">
-        <v>188</v>
-      </c>
-      <c r="K28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>33</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29">
-        <v>2382</v>
-      </c>
-      <c r="F29" t="s">
-        <v>188</v>
-      </c>
-      <c r="I29" t="s">
-        <v>187</v>
-      </c>
-      <c r="J29" t="s">
-        <v>188</v>
-      </c>
-      <c r="K29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30">
-        <v>1595</v>
-      </c>
-      <c r="F30" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" t="s">
-        <v>187</v>
-      </c>
-      <c r="J30" t="s">
-        <v>188</v>
-      </c>
-      <c r="K30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31">
-        <v>121</v>
-      </c>
-      <c r="F31" t="s">
-        <v>188</v>
-      </c>
-      <c r="I31" t="s">
-        <v>187</v>
-      </c>
-      <c r="J31" t="s">
-        <v>188</v>
-      </c>
-      <c r="K31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32">
-        <v>259</v>
-      </c>
-      <c r="F32" t="s">
-        <v>189</v>
-      </c>
-      <c r="I32" t="s">
-        <v>187</v>
-      </c>
-      <c r="J32" t="s">
-        <v>188</v>
-      </c>
-      <c r="K32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33">
-        <v>2382</v>
-      </c>
-      <c r="F33" t="s">
-        <v>189</v>
-      </c>
-      <c r="I33" t="s">
-        <v>187</v>
-      </c>
-      <c r="J33" t="s">
-        <v>188</v>
-      </c>
-      <c r="K33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34">
-        <v>2539</v>
-      </c>
-      <c r="F34" t="s">
-        <v>189</v>
-      </c>
-      <c r="I34" t="s">
-        <v>187</v>
-      </c>
-      <c r="J34" t="s">
-        <v>188</v>
-      </c>
-      <c r="K34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D36">
-        <f>SUM(D37:D47)</f>
-        <v>8131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
-        <v>191</v>
-      </c>
-      <c r="I37" t="s">
-        <v>187</v>
-      </c>
-      <c r="J37" t="s">
-        <v>188</v>
-      </c>
-      <c r="K37" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>228</v>
-      </c>
-      <c r="D38">
-        <v>75</v>
-      </c>
-      <c r="G38" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" t="s">
-        <v>187</v>
-      </c>
-      <c r="J38" t="s">
-        <v>188</v>
-      </c>
-      <c r="K38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>228</v>
-      </c>
-      <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="G39" t="s">
-        <v>191</v>
-      </c>
-      <c r="I39" t="s">
-        <v>187</v>
-      </c>
-      <c r="J39" t="s">
-        <v>188</v>
-      </c>
-      <c r="K39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>74</v>
-      </c>
-      <c r="B40" t="s">
-        <v>183</v>
-      </c>
-      <c r="C40" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s">
-        <v>191</v>
-      </c>
-      <c r="I40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J40" t="s">
-        <v>188</v>
-      </c>
-      <c r="K40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" t="s">
-        <v>228</v>
-      </c>
-      <c r="D41">
-        <v>69</v>
-      </c>
-      <c r="G41" t="s">
-        <v>191</v>
-      </c>
-      <c r="I41" t="s">
-        <v>187</v>
-      </c>
-      <c r="J41" t="s">
-        <v>188</v>
-      </c>
-      <c r="K41" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>62</v>
-      </c>
-      <c r="B42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" t="s">
-        <v>228</v>
-      </c>
-      <c r="D42">
-        <v>2308</v>
-      </c>
-      <c r="G42" t="s">
-        <v>189</v>
-      </c>
-      <c r="I42" t="s">
-        <v>187</v>
-      </c>
-      <c r="J42" t="s">
-        <v>188</v>
-      </c>
-      <c r="K42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>52</v>
-      </c>
-      <c r="B43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43">
-        <v>296</v>
-      </c>
-      <c r="G43" t="s">
-        <v>189</v>
-      </c>
-      <c r="I43" t="s">
-        <v>187</v>
-      </c>
-      <c r="J43" t="s">
-        <v>188</v>
-      </c>
-      <c r="K43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" t="s">
-        <v>228</v>
-      </c>
-      <c r="D44">
-        <v>2821</v>
-      </c>
-      <c r="G44" t="s">
-        <v>189</v>
-      </c>
-      <c r="I44" t="s">
-        <v>187</v>
-      </c>
-      <c r="J44" t="s">
-        <v>188</v>
-      </c>
-      <c r="K44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45">
-        <v>846</v>
-      </c>
-      <c r="G45" t="s">
-        <v>187</v>
-      </c>
-      <c r="I45" t="s">
-        <v>187</v>
-      </c>
-      <c r="J45" t="s">
-        <v>188</v>
-      </c>
-      <c r="K45" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>62</v>
-      </c>
-      <c r="B46" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46">
-        <v>1380</v>
-      </c>
-      <c r="G46" t="s">
-        <v>187</v>
-      </c>
-      <c r="I46" t="s">
-        <v>187</v>
-      </c>
-      <c r="J46" t="s">
-        <v>188</v>
-      </c>
-      <c r="K46" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>52</v>
-      </c>
-      <c r="B47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47">
-        <v>241</v>
-      </c>
-      <c r="G47" t="s">
-        <v>187</v>
-      </c>
-      <c r="I47" t="s">
-        <v>187</v>
-      </c>
-      <c r="J47" t="s">
-        <v>188</v>
-      </c>
-      <c r="K47" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D49">
-        <f>SUM(D50:D60)</f>
-        <v>7453</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>74</v>
-      </c>
-      <c r="B50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" t="s">
-        <v>229</v>
-      </c>
-      <c r="D50">
-        <v>51</v>
-      </c>
-      <c r="H50" t="s">
-        <v>192</v>
-      </c>
-      <c r="I50" t="s">
-        <v>187</v>
-      </c>
-      <c r="J50" t="s">
-        <v>188</v>
-      </c>
-      <c r="K50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>74</v>
-      </c>
-      <c r="B51" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51">
-        <v>33</v>
-      </c>
-      <c r="H51" t="s">
-        <v>192</v>
-      </c>
-      <c r="I51" t="s">
-        <v>187</v>
-      </c>
-      <c r="J51" t="s">
-        <v>188</v>
-      </c>
-      <c r="K51" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>46</v>
-      </c>
-      <c r="B52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52">
-        <v>31</v>
-      </c>
-      <c r="H52" t="s">
-        <v>192</v>
-      </c>
-      <c r="I52" t="s">
-        <v>187</v>
-      </c>
-      <c r="J52" t="s">
-        <v>188</v>
-      </c>
-      <c r="K52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>45</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" t="s">
-        <v>229</v>
-      </c>
-      <c r="D53">
-        <v>320</v>
-      </c>
-      <c r="H53" t="s">
-        <v>192</v>
-      </c>
-      <c r="I53" t="s">
-        <v>187</v>
-      </c>
-      <c r="J53" t="s">
-        <v>188</v>
-      </c>
-      <c r="K53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>46</v>
-      </c>
-      <c r="B54" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" t="s">
-        <v>229</v>
-      </c>
-      <c r="D54">
-        <v>25</v>
-      </c>
-      <c r="H54" t="s">
-        <v>192</v>
-      </c>
-      <c r="I54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J54" t="s">
-        <v>188</v>
-      </c>
-      <c r="K54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>33</v>
-      </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" t="s">
-        <v>229</v>
-      </c>
-      <c r="D55">
-        <v>1064</v>
-      </c>
-      <c r="H55" t="s">
-        <v>187</v>
-      </c>
-      <c r="I55" t="s">
-        <v>187</v>
-      </c>
-      <c r="J55" t="s">
-        <v>188</v>
-      </c>
-      <c r="K55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>62</v>
-      </c>
-      <c r="B56" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" t="s">
-        <v>229</v>
-      </c>
-      <c r="D56">
-        <v>1083</v>
-      </c>
-      <c r="H56" t="s">
-        <v>187</v>
-      </c>
-      <c r="I56" t="s">
-        <v>187</v>
-      </c>
-      <c r="J56" t="s">
-        <v>188</v>
-      </c>
-      <c r="K56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>52</v>
-      </c>
-      <c r="B57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" t="s">
-        <v>229</v>
-      </c>
-      <c r="D57">
-        <v>129</v>
-      </c>
-      <c r="H57" t="s">
-        <v>187</v>
-      </c>
-      <c r="I57" t="s">
-        <v>187</v>
-      </c>
-      <c r="J57" t="s">
-        <v>188</v>
-      </c>
-      <c r="K57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>52</v>
-      </c>
-      <c r="B58" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" t="s">
-        <v>229</v>
-      </c>
-      <c r="D58">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s">
-        <v>188</v>
-      </c>
-      <c r="I58" t="s">
-        <v>187</v>
-      </c>
-      <c r="J58" t="s">
-        <v>188</v>
-      </c>
-      <c r="K58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" t="s">
-        <v>229</v>
-      </c>
-      <c r="D59">
-        <v>3384</v>
-      </c>
-      <c r="H59" t="s">
-        <v>188</v>
-      </c>
-      <c r="I59" t="s">
-        <v>187</v>
-      </c>
-      <c r="J59" t="s">
-        <v>188</v>
-      </c>
-      <c r="K59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>62</v>
-      </c>
-      <c r="B60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" t="s">
-        <v>229</v>
-      </c>
-      <c r="D60">
-        <v>1243</v>
-      </c>
-      <c r="H60" t="s">
-        <v>188</v>
-      </c>
-      <c r="I60" t="s">
-        <v>187</v>
-      </c>
-      <c r="J60" t="s">
-        <v>188</v>
-      </c>
-      <c r="K60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D62">
-        <f>SUM(D63:D197)</f>
-        <v>129230</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>72</v>
-      </c>
-      <c r="B63" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" t="s">
-        <v>230</v>
-      </c>
-      <c r="D63">
-        <v>140</v>
-      </c>
-      <c r="F63" t="s">
-        <v>190</v>
-      </c>
-      <c r="G63" t="s">
-        <v>191</v>
-      </c>
-      <c r="I63" t="s">
-        <v>187</v>
-      </c>
-      <c r="J63" t="s">
-        <v>188</v>
-      </c>
-      <c r="K63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="B64" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" t="s">
-        <v>230</v>
-      </c>
-      <c r="D64">
-        <v>2051</v>
-      </c>
-      <c r="F64" t="s">
-        <v>189</v>
-      </c>
-      <c r="G64" t="s">
-        <v>187</v>
-      </c>
-      <c r="I64" t="s">
-        <v>187</v>
-      </c>
-      <c r="J64" t="s">
-        <v>188</v>
-      </c>
-      <c r="K64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>56</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>230</v>
-      </c>
-      <c r="D65">
-        <v>932</v>
-      </c>
-      <c r="F65" t="s">
-        <v>189</v>
-      </c>
-      <c r="G65" t="s">
-        <v>189</v>
-      </c>
-      <c r="I65" t="s">
-        <v>187</v>
-      </c>
-      <c r="J65" t="s">
-        <v>188</v>
-      </c>
-      <c r="K65" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>60</v>
-      </c>
-      <c r="B66" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" t="s">
-        <v>230</v>
-      </c>
-      <c r="D66">
-        <v>1357</v>
-      </c>
-      <c r="F66" t="s">
-        <v>188</v>
-      </c>
-      <c r="G66" t="s">
-        <v>189</v>
-      </c>
-      <c r="I66" t="s">
-        <v>187</v>
-      </c>
-      <c r="J66" t="s">
-        <v>188</v>
-      </c>
-      <c r="K66" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D69">
-        <f>SUM(D70:D73)</f>
-        <v>3181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>72</v>
-      </c>
-      <c r="B70" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" t="s">
-        <v>231</v>
-      </c>
-      <c r="D70">
-        <v>132</v>
-      </c>
-      <c r="F70" t="s">
-        <v>190</v>
-      </c>
-      <c r="H70" t="s">
-        <v>192</v>
-      </c>
-      <c r="I70" t="s">
-        <v>187</v>
-      </c>
-      <c r="J70" t="s">
-        <v>188</v>
-      </c>
-      <c r="K70" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>60</v>
-      </c>
-      <c r="B71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" t="s">
-        <v>231</v>
-      </c>
-      <c r="D71">
-        <v>777</v>
-      </c>
-      <c r="F71" t="s">
-        <v>188</v>
-      </c>
-      <c r="H71" t="s">
-        <v>187</v>
-      </c>
-      <c r="I71" t="s">
-        <v>187</v>
-      </c>
-      <c r="J71" t="s">
-        <v>188</v>
-      </c>
-      <c r="K71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>56</v>
-      </c>
-      <c r="B72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" t="s">
-        <v>231</v>
-      </c>
-      <c r="D72">
-        <v>1326</v>
-      </c>
-      <c r="F72" t="s">
-        <v>188</v>
-      </c>
-      <c r="H72" t="s">
-        <v>188</v>
-      </c>
-      <c r="I72" t="s">
-        <v>187</v>
-      </c>
-      <c r="J72" t="s">
-        <v>188</v>
-      </c>
-      <c r="K72" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>60</v>
-      </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73">
-        <v>946</v>
-      </c>
-      <c r="F73" t="s">
-        <v>189</v>
-      </c>
-      <c r="H73" t="s">
-        <v>188</v>
-      </c>
-      <c r="I73" t="s">
-        <v>187</v>
-      </c>
-      <c r="J73" t="s">
-        <v>188</v>
-      </c>
-      <c r="K73" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D75">
-        <f>SUM(D76:D80)</f>
-        <v>4659</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>45</v>
-      </c>
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" t="s">
-        <v>232</v>
-      </c>
-      <c r="D76">
-        <v>170</v>
-      </c>
-      <c r="G76" t="s">
-        <v>191</v>
-      </c>
-      <c r="H76" t="s">
-        <v>192</v>
-      </c>
-      <c r="I76" t="s">
-        <v>187</v>
-      </c>
-      <c r="J76" t="s">
-        <v>188</v>
-      </c>
-      <c r="K76" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>72</v>
-      </c>
-      <c r="B77" t="s">
-        <v>176</v>
-      </c>
-      <c r="C77" t="s">
-        <v>232</v>
-      </c>
-      <c r="D77">
-        <v>117</v>
-      </c>
-      <c r="G77" t="s">
-        <v>191</v>
-      </c>
-      <c r="H77" t="s">
-        <v>192</v>
-      </c>
-      <c r="I77" t="s">
-        <v>187</v>
-      </c>
-      <c r="J77" t="s">
-        <v>188</v>
-      </c>
-      <c r="K77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>56</v>
-      </c>
-      <c r="B78" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" t="s">
-        <v>232</v>
-      </c>
-      <c r="D78">
-        <v>1193</v>
-      </c>
-      <c r="G78" t="s">
-        <v>187</v>
-      </c>
-      <c r="H78" t="s">
-        <v>187</v>
-      </c>
-      <c r="I78" t="s">
-        <v>187</v>
-      </c>
-      <c r="J78" t="s">
-        <v>188</v>
-      </c>
-      <c r="K78" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>60</v>
-      </c>
-      <c r="B79" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" t="s">
-        <v>232</v>
-      </c>
-      <c r="D79">
-        <v>1100</v>
-      </c>
-      <c r="G79" t="s">
-        <v>187</v>
-      </c>
-      <c r="H79" t="s">
-        <v>188</v>
-      </c>
-      <c r="I79" t="s">
-        <v>187</v>
-      </c>
-      <c r="J79" t="s">
-        <v>188</v>
-      </c>
-      <c r="K79" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>60</v>
-      </c>
-      <c r="B80" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80">
-        <v>2079</v>
-      </c>
-      <c r="G80" t="s">
-        <v>189</v>
-      </c>
-      <c r="H80" t="s">
-        <v>187</v>
-      </c>
-      <c r="I80" t="s">
-        <v>187</v>
-      </c>
-      <c r="J80" t="s">
-        <v>188</v>
-      </c>
-      <c r="K80" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D82">
-        <f>SUM(D83:D203)</f>
-        <v>55087</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>22</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s">
-        <v>233</v>
-      </c>
-      <c r="D83">
-        <v>36</v>
-      </c>
-      <c r="F83" t="s">
-        <v>190</v>
-      </c>
-      <c r="G83" t="s">
-        <v>191</v>
-      </c>
-      <c r="H83" t="s">
-        <v>192</v>
-      </c>
-      <c r="I83" t="s">
-        <v>187</v>
-      </c>
-      <c r="J83" t="s">
-        <v>188</v>
-      </c>
-      <c r="K83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>42</v>
-      </c>
-      <c r="B84" t="s">
-        <v>217</v>
-      </c>
-      <c r="C84" t="s">
-        <v>233</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s">
-        <v>190</v>
-      </c>
-      <c r="G84" t="s">
-        <v>191</v>
-      </c>
-      <c r="H84" t="s">
-        <v>192</v>
-      </c>
-      <c r="I84" t="s">
-        <v>187</v>
-      </c>
-      <c r="J84" t="s">
-        <v>188</v>
-      </c>
-      <c r="K84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>42</v>
-      </c>
-      <c r="B85" t="s">
-        <v>216</v>
-      </c>
-      <c r="C85" t="s">
-        <v>233</v>
-      </c>
-      <c r="D85">
-        <v>6</v>
-      </c>
-      <c r="F85" t="s">
-        <v>190</v>
-      </c>
-      <c r="G85" t="s">
-        <v>191</v>
-      </c>
-      <c r="H85" t="s">
-        <v>192</v>
-      </c>
-      <c r="I85" t="s">
-        <v>187</v>
-      </c>
-      <c r="J85" t="s">
-        <v>188</v>
-      </c>
-      <c r="K85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>42</v>
-      </c>
-      <c r="B86" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" t="s">
-        <v>233</v>
-      </c>
-      <c r="D86">
-        <v>71</v>
-      </c>
-      <c r="F86" t="s">
-        <v>190</v>
-      </c>
-      <c r="G86" t="s">
-        <v>191</v>
-      </c>
-      <c r="H86" t="s">
-        <v>192</v>
-      </c>
-      <c r="I86" t="s">
-        <v>187</v>
-      </c>
-      <c r="J86" t="s">
-        <v>188</v>
-      </c>
-      <c r="K86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>69</v>
-      </c>
-      <c r="B87" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" t="s">
-        <v>233</v>
-      </c>
-      <c r="D87">
-        <v>98</v>
-      </c>
-      <c r="F87" t="s">
-        <v>190</v>
-      </c>
-      <c r="G87" t="s">
-        <v>191</v>
-      </c>
-      <c r="H87" t="s">
-        <v>192</v>
-      </c>
-      <c r="I87" t="s">
-        <v>187</v>
-      </c>
-      <c r="J87" t="s">
-        <v>188</v>
-      </c>
-      <c r="K87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>73</v>
-      </c>
-      <c r="B88" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" t="s">
-        <v>233</v>
-      </c>
-      <c r="D88">
-        <v>268</v>
-      </c>
-      <c r="F88" t="s">
-        <v>190</v>
-      </c>
-      <c r="G88" t="s">
-        <v>191</v>
-      </c>
-      <c r="H88" t="s">
-        <v>192</v>
-      </c>
-      <c r="I88" t="s">
-        <v>187</v>
-      </c>
-      <c r="J88" t="s">
-        <v>188</v>
-      </c>
-      <c r="K88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>73</v>
-      </c>
-      <c r="B89" t="s">
-        <v>220</v>
-      </c>
-      <c r="C89" t="s">
-        <v>233</v>
-      </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="F89" t="s">
-        <v>190</v>
-      </c>
-      <c r="G89" t="s">
-        <v>191</v>
-      </c>
-      <c r="H89" t="s">
-        <v>192</v>
-      </c>
-      <c r="I89" t="s">
-        <v>187</v>
-      </c>
-      <c r="J89" t="s">
-        <v>188</v>
-      </c>
-      <c r="K89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>61</v>
-      </c>
-      <c r="B92" t="s">
-        <v>153</v>
-      </c>
-      <c r="C92" t="s">
-        <v>234</v>
-      </c>
-      <c r="D92">
-        <v>9742</v>
-      </c>
-      <c r="F92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G92" t="s">
-        <v>189</v>
-      </c>
-      <c r="H92" t="s">
-        <v>187</v>
-      </c>
-      <c r="I92" t="s">
-        <v>187</v>
-      </c>
-      <c r="J92" t="s">
-        <v>188</v>
-      </c>
-      <c r="K92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>61</v>
-      </c>
-      <c r="B95" t="s">
-        <v>154</v>
-      </c>
-      <c r="C95" t="s">
-        <v>212</v>
-      </c>
-      <c r="D95">
-        <v>9743</v>
-      </c>
-      <c r="F95" t="s">
-        <v>189</v>
-      </c>
-      <c r="G95" t="s">
-        <v>187</v>
-      </c>
-      <c r="H95" t="s">
-        <v>188</v>
-      </c>
-      <c r="I95" t="s">
-        <v>187</v>
-      </c>
-      <c r="J95" t="s">
-        <v>188</v>
-      </c>
-      <c r="K95" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D97">
-        <f>SUM(D98:D114)</f>
-        <v>3683</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>18</v>
-      </c>
-      <c r="B98" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" t="s">
-        <v>208</v>
-      </c>
-      <c r="D98">
-        <v>183</v>
-      </c>
-      <c r="I98" t="s">
-        <v>187</v>
-      </c>
-      <c r="J98" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>31</v>
-      </c>
-      <c r="B99" t="s">
-        <v>56</v>
-      </c>
-      <c r="C99" t="s">
-        <v>208</v>
-      </c>
-      <c r="D99">
-        <v>37</v>
-      </c>
-      <c r="I99" t="s">
-        <v>187</v>
-      </c>
-      <c r="J99" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>59</v>
-      </c>
-      <c r="B100" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" t="s">
-        <v>208</v>
-      </c>
-      <c r="D100">
-        <v>26</v>
-      </c>
-      <c r="I100" t="s">
-        <v>187</v>
-      </c>
-      <c r="J100" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>31</v>
-      </c>
-      <c r="B101" t="s">
-        <v>58</v>
-      </c>
-      <c r="C101" t="s">
-        <v>208</v>
-      </c>
-      <c r="D101">
-        <v>181</v>
-      </c>
-      <c r="I101" t="s">
-        <v>187</v>
-      </c>
-      <c r="J101" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>53</v>
-      </c>
-      <c r="B102" t="s">
-        <v>120</v>
-      </c>
-      <c r="C102" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102">
-        <v>38</v>
-      </c>
-      <c r="F102" t="s">
-        <v>188</v>
-      </c>
-      <c r="I102" t="s">
-        <v>187</v>
-      </c>
-      <c r="J102" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>30</v>
-      </c>
-      <c r="B103" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" t="s">
-        <v>208</v>
-      </c>
-      <c r="D103">
-        <v>55</v>
-      </c>
-      <c r="F103" t="s">
-        <v>188</v>
-      </c>
-      <c r="I103" t="s">
-        <v>187</v>
-      </c>
-      <c r="J103" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>53</v>
-      </c>
-      <c r="B104" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" t="s">
-        <v>208</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="G104" t="s">
-        <v>187</v>
-      </c>
-      <c r="I104" t="s">
-        <v>187</v>
-      </c>
-      <c r="J104" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>30</v>
-      </c>
-      <c r="B105" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" t="s">
-        <v>208</v>
-      </c>
-      <c r="D105">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s">
-        <v>187</v>
-      </c>
-      <c r="I105" t="s">
-        <v>187</v>
-      </c>
-      <c r="J105" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>32</v>
-      </c>
-      <c r="B106" t="s">
-        <v>61</v>
-      </c>
-      <c r="C106" t="s">
-        <v>208</v>
-      </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s">
-        <v>188</v>
-      </c>
-      <c r="G106" t="s">
-        <v>187</v>
-      </c>
-      <c r="I106" t="s">
-        <v>187</v>
-      </c>
-      <c r="J106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>55</v>
-      </c>
-      <c r="B107" t="s">
-        <v>131</v>
-      </c>
-      <c r="C107" t="s">
-        <v>208</v>
-      </c>
-      <c r="D107">
-        <v>49</v>
-      </c>
-      <c r="F107" t="s">
-        <v>188</v>
-      </c>
-      <c r="G107" t="s">
-        <v>187</v>
-      </c>
-      <c r="I107" t="s">
-        <v>187</v>
-      </c>
-      <c r="J107" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>50</v>
-      </c>
-      <c r="B108" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" t="s">
-        <v>208</v>
-      </c>
-      <c r="D108">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>188</v>
-      </c>
-      <c r="G108" t="s">
-        <v>187</v>
-      </c>
-      <c r="I108" t="s">
-        <v>187</v>
-      </c>
-      <c r="J108" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>29</v>
-      </c>
-      <c r="B109" t="s">
-        <v>44</v>
-      </c>
-      <c r="C109" t="s">
-        <v>208</v>
-      </c>
-      <c r="D109">
-        <v>2373</v>
-      </c>
-      <c r="F109" t="s">
-        <v>188</v>
-      </c>
-      <c r="H109" t="s">
-        <v>187</v>
-      </c>
-      <c r="I109" t="s">
-        <v>187</v>
-      </c>
-      <c r="J109" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>57</v>
-      </c>
-      <c r="B110" t="s">
-        <v>138</v>
-      </c>
-      <c r="C110" t="s">
-        <v>208</v>
-      </c>
-      <c r="D110">
-        <v>120</v>
-      </c>
-      <c r="F110" t="s">
-        <v>188</v>
-      </c>
-      <c r="H110" t="s">
-        <v>187</v>
-      </c>
-      <c r="I110" t="s">
-        <v>187</v>
-      </c>
-      <c r="J110" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>29</v>
-      </c>
-      <c r="B111" t="s">
-        <v>46</v>
-      </c>
-      <c r="C111" t="s">
-        <v>208</v>
-      </c>
-      <c r="D111">
-        <v>380</v>
-      </c>
-      <c r="G111" t="s">
-        <v>187</v>
-      </c>
-      <c r="H111" t="s">
-        <v>188</v>
-      </c>
-      <c r="I111" t="s">
-        <v>187</v>
-      </c>
-      <c r="J111" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>57</v>
-      </c>
-      <c r="B112" t="s">
-        <v>140</v>
-      </c>
-      <c r="C112" t="s">
-        <v>208</v>
-      </c>
-      <c r="D112">
-        <v>26</v>
-      </c>
-      <c r="G112" t="s">
-        <v>187</v>
-      </c>
-      <c r="H112" t="s">
-        <v>188</v>
-      </c>
-      <c r="I112" t="s">
-        <v>187</v>
-      </c>
-      <c r="J112" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>54</v>
-      </c>
-      <c r="B113" t="s">
-        <v>126</v>
-      </c>
-      <c r="C113" t="s">
-        <v>208</v>
-      </c>
-      <c r="D113">
-        <v>18</v>
-      </c>
-      <c r="F113" t="s">
-        <v>188</v>
-      </c>
-      <c r="G113" t="s">
-        <v>187</v>
-      </c>
-      <c r="H113" t="s">
-        <v>187</v>
-      </c>
-      <c r="I113" t="s">
-        <v>187</v>
-      </c>
-      <c r="J113" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>54</v>
-      </c>
-      <c r="B114" t="s">
-        <v>128</v>
-      </c>
-      <c r="C114" t="s">
-        <v>208</v>
-      </c>
-      <c r="D114">
-        <v>170</v>
-      </c>
-      <c r="F114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G114" t="s">
-        <v>187</v>
-      </c>
-      <c r="H114" t="s">
-        <v>188</v>
-      </c>
-      <c r="I114" t="s">
-        <v>187</v>
-      </c>
-      <c r="J114" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D116">
-        <f>SUM(D117:D133)</f>
-        <v>4883</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>59</v>
-      </c>
-      <c r="B117" t="s">
-        <v>145</v>
-      </c>
-      <c r="C117" t="s">
-        <v>222</v>
-      </c>
-      <c r="D117">
-        <v>177</v>
-      </c>
-      <c r="I117" t="s">
-        <v>187</v>
-      </c>
-      <c r="K117" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>18</v>
-      </c>
-      <c r="B118" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" t="s">
-        <v>222</v>
-      </c>
-      <c r="D118">
-        <v>2370</v>
-      </c>
-      <c r="I118" t="s">
-        <v>187</v>
-      </c>
-      <c r="K118" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>31</v>
-      </c>
-      <c r="B119" t="s">
-        <v>57</v>
-      </c>
-      <c r="C119" t="s">
-        <v>222</v>
-      </c>
-      <c r="D119">
-        <v>190</v>
-      </c>
-      <c r="I119" t="s">
-        <v>187</v>
-      </c>
-      <c r="K119" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>31</v>
-      </c>
-      <c r="B120" t="s">
-        <v>55</v>
-      </c>
-      <c r="C120" t="s">
-        <v>222</v>
-      </c>
-      <c r="D120">
-        <v>26</v>
-      </c>
-      <c r="I120" t="s">
-        <v>187</v>
-      </c>
-      <c r="K120" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>30</v>
-      </c>
-      <c r="B121" t="s">
-        <v>51</v>
-      </c>
-      <c r="C121" t="s">
-        <v>222</v>
-      </c>
-      <c r="D121">
-        <v>14</v>
-      </c>
-      <c r="H121" t="s">
-        <v>187</v>
-      </c>
-      <c r="I121" t="s">
-        <v>187</v>
-      </c>
-      <c r="K121" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>53</v>
-      </c>
-      <c r="B122" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" t="s">
-        <v>222</v>
-      </c>
-      <c r="D122">
-        <v>25</v>
-      </c>
-      <c r="H122" t="s">
-        <v>187</v>
-      </c>
-      <c r="I122" t="s">
-        <v>187</v>
-      </c>
-      <c r="K122" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>30</v>
-      </c>
-      <c r="B123" t="s">
-        <v>49</v>
-      </c>
-      <c r="C123" t="s">
-        <v>222</v>
-      </c>
-      <c r="D123">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>189</v>
-      </c>
-      <c r="I123" t="s">
-        <v>187</v>
-      </c>
-      <c r="K123" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>53</v>
-      </c>
-      <c r="B124" t="s">
-        <v>119</v>
-      </c>
-      <c r="C124" t="s">
-        <v>222</v>
-      </c>
-      <c r="D124">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>189</v>
-      </c>
-      <c r="I124" t="s">
-        <v>187</v>
-      </c>
-      <c r="K124" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>32</v>
-      </c>
-      <c r="B125" t="s">
-        <v>60</v>
-      </c>
-      <c r="C125" t="s">
-        <v>222</v>
-      </c>
-      <c r="D125">
-        <v>135</v>
-      </c>
-      <c r="F125" t="s">
-        <v>189</v>
-      </c>
-      <c r="H125" t="s">
-        <v>187</v>
-      </c>
-      <c r="I125" t="s">
-        <v>187</v>
-      </c>
-      <c r="K125" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>29</v>
-      </c>
-      <c r="B126" t="s">
-        <v>45</v>
-      </c>
-      <c r="C126" t="s">
-        <v>222</v>
-      </c>
-      <c r="D126">
-        <v>647</v>
-      </c>
-      <c r="F126" t="s">
-        <v>189</v>
-      </c>
-      <c r="H126" t="s">
-        <v>187</v>
-      </c>
-      <c r="I126" t="s">
-        <v>187</v>
-      </c>
-      <c r="K126" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>57</v>
-      </c>
-      <c r="B127" t="s">
-        <v>139</v>
-      </c>
-      <c r="C127" t="s">
-        <v>222</v>
-      </c>
-      <c r="D127">
-        <v>27</v>
-      </c>
-      <c r="F127" t="s">
-        <v>189</v>
-      </c>
-      <c r="H127" t="s">
-        <v>187</v>
-      </c>
-      <c r="I127" t="s">
-        <v>187</v>
-      </c>
-      <c r="K127" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>55</v>
-      </c>
-      <c r="B128" t="s">
-        <v>130</v>
-      </c>
-      <c r="C128" t="s">
-        <v>222</v>
-      </c>
-      <c r="D128">
-        <v>203</v>
-      </c>
-      <c r="F128" t="s">
-        <v>189</v>
-      </c>
-      <c r="H128" t="s">
-        <v>187</v>
-      </c>
-      <c r="I128" t="s">
-        <v>187</v>
-      </c>
-      <c r="K128" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>50</v>
-      </c>
-      <c r="B129" t="s">
-        <v>103</v>
-      </c>
-      <c r="C129" t="s">
-        <v>222</v>
-      </c>
-      <c r="D129">
-        <v>54</v>
-      </c>
-      <c r="F129" t="s">
-        <v>189</v>
-      </c>
-      <c r="H129" t="s">
-        <v>187</v>
-      </c>
-      <c r="I129" t="s">
-        <v>187</v>
-      </c>
-      <c r="K129" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>29</v>
-      </c>
-      <c r="B130" t="s">
-        <v>43</v>
-      </c>
-      <c r="C130" t="s">
-        <v>222</v>
-      </c>
-      <c r="D130">
-        <v>772</v>
-      </c>
-      <c r="G130" t="s">
-        <v>189</v>
-      </c>
-      <c r="H130" t="s">
-        <v>187</v>
-      </c>
-      <c r="I130" t="s">
-        <v>187</v>
-      </c>
-      <c r="K130" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>57</v>
-      </c>
-      <c r="B131" t="s">
-        <v>137</v>
-      </c>
-      <c r="C131" t="s">
-        <v>222</v>
-      </c>
-      <c r="D131">
-        <v>94</v>
-      </c>
-      <c r="G131" t="s">
-        <v>189</v>
-      </c>
-      <c r="H131" t="s">
-        <v>187</v>
-      </c>
-      <c r="I131" t="s">
-        <v>187</v>
-      </c>
-      <c r="K131" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>54</v>
-      </c>
-      <c r="B132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C132" t="s">
-        <v>222</v>
-      </c>
-      <c r="D132">
-        <v>43</v>
-      </c>
-      <c r="F132" t="s">
-        <v>189</v>
-      </c>
-      <c r="G132" t="s">
-        <v>189</v>
-      </c>
-      <c r="H132" t="s">
-        <v>187</v>
-      </c>
-      <c r="I132" t="s">
-        <v>187</v>
-      </c>
-      <c r="K132" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>54</v>
-      </c>
-      <c r="B133" t="s">
-        <v>127</v>
-      </c>
-      <c r="C133" t="s">
-        <v>222</v>
-      </c>
-      <c r="D133">
-        <v>89</v>
-      </c>
-      <c r="F133" t="s">
-        <v>189</v>
-      </c>
-      <c r="G133" t="s">
-        <v>187</v>
-      </c>
-      <c r="H133" t="s">
-        <v>187</v>
-      </c>
-      <c r="I133" t="s">
-        <v>187</v>
-      </c>
-      <c r="K133" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D135">
-        <f>SUM(D136:D152)</f>
-        <v>5631</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>18</v>
-      </c>
-      <c r="B136" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" t="s">
-        <v>223</v>
-      </c>
-      <c r="D136">
-        <v>1299</v>
-      </c>
-      <c r="J136" t="s">
-        <v>188</v>
-      </c>
-      <c r="K136" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>31</v>
-      </c>
-      <c r="B137" t="s">
-        <v>54</v>
-      </c>
-      <c r="C137" t="s">
-        <v>223</v>
-      </c>
-      <c r="D137">
-        <v>61</v>
-      </c>
-      <c r="J137" t="s">
-        <v>188</v>
-      </c>
-      <c r="K137" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>31</v>
-      </c>
-      <c r="B138" t="s">
-        <v>53</v>
-      </c>
-      <c r="C138" t="s">
-        <v>223</v>
-      </c>
-      <c r="D138">
-        <v>73</v>
-      </c>
-      <c r="J138" t="s">
-        <v>188</v>
-      </c>
-      <c r="K138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>59</v>
-      </c>
-      <c r="B139" t="s">
-        <v>144</v>
-      </c>
-      <c r="C139" t="s">
-        <v>223</v>
-      </c>
-      <c r="D139" s="1">
-        <v>101</v>
-      </c>
-      <c r="J139" t="s">
-        <v>188</v>
-      </c>
-      <c r="K139" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>30</v>
-      </c>
-      <c r="B140" t="s">
-        <v>47</v>
-      </c>
-      <c r="C140" t="s">
-        <v>223</v>
-      </c>
-      <c r="D140">
-        <v>9</v>
-      </c>
-      <c r="G140" t="s">
-        <v>189</v>
-      </c>
-      <c r="J140" t="s">
-        <v>188</v>
-      </c>
-      <c r="K140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>53</v>
-      </c>
-      <c r="B141" t="s">
-        <v>117</v>
-      </c>
-      <c r="C141" t="s">
-        <v>223</v>
-      </c>
-      <c r="D141">
-        <v>10</v>
-      </c>
-      <c r="G141" t="s">
-        <v>189</v>
-      </c>
-      <c r="J141" t="s">
-        <v>188</v>
-      </c>
-      <c r="K141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>53</v>
-      </c>
-      <c r="B142" t="s">
-        <v>118</v>
-      </c>
-      <c r="C142" t="s">
-        <v>223</v>
-      </c>
-      <c r="D142">
-        <v>49</v>
-      </c>
-      <c r="H142" t="s">
-        <v>188</v>
-      </c>
-      <c r="J142" t="s">
-        <v>188</v>
-      </c>
-      <c r="K142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>30</v>
-      </c>
-      <c r="B143" t="s">
-        <v>48</v>
-      </c>
-      <c r="C143" t="s">
-        <v>223</v>
-      </c>
-      <c r="D143">
-        <v>40</v>
-      </c>
-      <c r="H143" t="s">
-        <v>188</v>
-      </c>
-      <c r="J143" t="s">
-        <v>188</v>
-      </c>
-      <c r="K143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>29</v>
-      </c>
-      <c r="B144" t="s">
-        <v>41</v>
-      </c>
-      <c r="C144" t="s">
-        <v>223</v>
-      </c>
-      <c r="D144">
-        <v>713</v>
-      </c>
-      <c r="F144" t="s">
-        <v>188</v>
-      </c>
-      <c r="G144" t="s">
-        <v>189</v>
-      </c>
-      <c r="J144" t="s">
-        <v>188</v>
-      </c>
-      <c r="K144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>57</v>
-      </c>
-      <c r="B145" t="s">
-        <v>135</v>
-      </c>
-      <c r="C145" t="s">
-        <v>223</v>
-      </c>
-      <c r="D145" s="1">
-        <v>427</v>
-      </c>
-      <c r="F145" t="s">
-        <v>188</v>
-      </c>
-      <c r="G145" t="s">
-        <v>189</v>
-      </c>
-      <c r="J145" t="s">
-        <v>188</v>
-      </c>
-      <c r="K145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>55</v>
-      </c>
-      <c r="B146" t="s">
-        <v>129</v>
-      </c>
-      <c r="C146" t="s">
-        <v>223</v>
-      </c>
-      <c r="D146" s="1">
-        <v>113</v>
-      </c>
-      <c r="G146" t="s">
-        <v>189</v>
-      </c>
-      <c r="H146" t="s">
-        <v>188</v>
-      </c>
-      <c r="J146" t="s">
-        <v>188</v>
-      </c>
-      <c r="K146" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>32</v>
-      </c>
-      <c r="B147" t="s">
-        <v>59</v>
-      </c>
-      <c r="C147" t="s">
-        <v>223</v>
-      </c>
-      <c r="D147">
-        <v>35</v>
-      </c>
-      <c r="G147" t="s">
-        <v>189</v>
-      </c>
-      <c r="H147" t="s">
-        <v>188</v>
-      </c>
-      <c r="J147" t="s">
-        <v>188</v>
-      </c>
-      <c r="K147" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>50</v>
-      </c>
-      <c r="B148" t="s">
-        <v>102</v>
-      </c>
-      <c r="C148" t="s">
-        <v>223</v>
-      </c>
-      <c r="D148">
-        <v>38</v>
-      </c>
-      <c r="G148" t="s">
-        <v>189</v>
-      </c>
-      <c r="H148" t="s">
-        <v>188</v>
-      </c>
-      <c r="J148" t="s">
-        <v>188</v>
-      </c>
-      <c r="K148" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>29</v>
-      </c>
-      <c r="B149" t="s">
-        <v>42</v>
-      </c>
-      <c r="C149" t="s">
-        <v>223</v>
-      </c>
-      <c r="D149">
-        <v>2206</v>
-      </c>
-      <c r="F149" t="s">
-        <v>189</v>
-      </c>
-      <c r="H149" t="s">
-        <v>188</v>
-      </c>
-      <c r="J149" t="s">
-        <v>188</v>
-      </c>
-      <c r="K149" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>57</v>
-      </c>
-      <c r="B150" t="s">
-        <v>136</v>
-      </c>
-      <c r="C150" t="s">
-        <v>223</v>
-      </c>
-      <c r="D150" s="1">
-        <v>278</v>
-      </c>
-      <c r="F150" t="s">
-        <v>189</v>
-      </c>
-      <c r="H150" t="s">
-        <v>188</v>
-      </c>
-      <c r="J150" t="s">
-        <v>188</v>
-      </c>
-      <c r="K150" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>54</v>
-      </c>
-      <c r="B151" t="s">
-        <v>124</v>
-      </c>
-      <c r="C151" t="s">
-        <v>223</v>
-      </c>
-      <c r="D151" s="1">
-        <v>40</v>
-      </c>
-      <c r="F151" t="s">
-        <v>188</v>
-      </c>
-      <c r="G151" t="s">
-        <v>189</v>
-      </c>
-      <c r="H151" t="s">
-        <v>188</v>
-      </c>
-      <c r="J151" t="s">
-        <v>188</v>
-      </c>
-      <c r="K151" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>54</v>
-      </c>
-      <c r="B152" t="s">
-        <v>123</v>
-      </c>
-      <c r="C152" t="s">
-        <v>223</v>
-      </c>
-      <c r="D152" s="1">
-        <v>139</v>
-      </c>
-      <c r="F152" t="s">
-        <v>189</v>
-      </c>
-      <c r="G152" t="s">
-        <v>189</v>
-      </c>
-      <c r="H152" t="s">
-        <v>188</v>
-      </c>
-      <c r="J152" t="s">
-        <v>188</v>
-      </c>
-      <c r="K152" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D154">
-        <f>SUM(D155:D187)</f>
-        <v>465</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>17</v>
-      </c>
-      <c r="B155" t="s">
-        <v>215</v>
-      </c>
-      <c r="C155" t="s">
-        <v>224</v>
-      </c>
-      <c r="D155">
-        <v>10</v>
-      </c>
-      <c r="I155" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>27</v>
-      </c>
-      <c r="B156" t="s">
-        <v>32</v>
-      </c>
-      <c r="C156" t="s">
-        <v>224</v>
-      </c>
-      <c r="D156">
-        <v>10</v>
-      </c>
-      <c r="G156" t="s">
-        <v>187</v>
-      </c>
-      <c r="H156" t="s">
-        <v>187</v>
-      </c>
-      <c r="I156" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>26</v>
-      </c>
-      <c r="B157" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" t="s">
-        <v>224</v>
-      </c>
-      <c r="D157">
-        <v>15</v>
-      </c>
-      <c r="G157" t="s">
-        <v>187</v>
-      </c>
-      <c r="I157" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>26</v>
-      </c>
-      <c r="B158" t="s">
-        <v>26</v>
-      </c>
-      <c r="C158" t="s">
-        <v>224</v>
-      </c>
-      <c r="D158">
-        <v>28</v>
-      </c>
-      <c r="H158" t="s">
-        <v>187</v>
-      </c>
-      <c r="I158" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>28</v>
-      </c>
-      <c r="B159" t="s">
-        <v>35</v>
-      </c>
-      <c r="C159" t="s">
-        <v>224</v>
-      </c>
-      <c r="D159">
-        <v>2</v>
-      </c>
-      <c r="H159" t="s">
-        <v>187</v>
-      </c>
-      <c r="I159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>28</v>
-      </c>
-      <c r="B160" t="s">
-        <v>36</v>
-      </c>
-      <c r="C160" t="s">
-        <v>224</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="G160" t="s">
-        <v>187</v>
-      </c>
-      <c r="I160" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>49</v>
-      </c>
-      <c r="B161" t="s">
-        <v>99</v>
-      </c>
-      <c r="C161" t="s">
-        <v>224</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="G161" t="s">
-        <v>187</v>
-      </c>
-      <c r="H161" t="s">
-        <v>187</v>
-      </c>
-      <c r="I161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>51</v>
-      </c>
-      <c r="B162" t="s">
-        <v>106</v>
-      </c>
-      <c r="C162" t="s">
-        <v>224</v>
-      </c>
-      <c r="D162">
-        <v>10</v>
-      </c>
-      <c r="G162" t="s">
-        <v>187</v>
-      </c>
-      <c r="I162" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>51</v>
-      </c>
-      <c r="B163" t="s">
-        <v>105</v>
-      </c>
-      <c r="C163" t="s">
-        <v>224</v>
-      </c>
-      <c r="D163">
-        <v>10</v>
-      </c>
-      <c r="H163" t="s">
-        <v>187</v>
-      </c>
-      <c r="I163" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>17</v>
-      </c>
-      <c r="B164" t="s">
-        <v>11</v>
-      </c>
-      <c r="C164" t="s">
-        <v>224</v>
-      </c>
-      <c r="D164">
-        <v>8</v>
-      </c>
-      <c r="J164" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>28</v>
-      </c>
-      <c r="B165" t="s">
-        <v>37</v>
-      </c>
-      <c r="C165" t="s">
-        <v>224</v>
-      </c>
-      <c r="D165">
-        <v>3</v>
-      </c>
-      <c r="H165" t="s">
-        <v>188</v>
-      </c>
-      <c r="J165" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>27</v>
-      </c>
-      <c r="B166" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166" t="s">
-        <v>224</v>
-      </c>
-      <c r="D166">
-        <v>15</v>
-      </c>
-      <c r="F166" t="s">
-        <v>188</v>
-      </c>
-      <c r="H166" t="s">
-        <v>188</v>
-      </c>
-      <c r="J166" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>26</v>
-      </c>
-      <c r="B167" t="s">
-        <v>30</v>
-      </c>
-      <c r="C167" t="s">
-        <v>224</v>
-      </c>
-      <c r="D167">
-        <v>8</v>
-      </c>
-      <c r="F167" t="s">
-        <v>188</v>
-      </c>
-      <c r="J167" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>28</v>
-      </c>
-      <c r="B168" t="s">
-        <v>39</v>
-      </c>
-      <c r="C168" t="s">
-        <v>224</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="F168" t="s">
-        <v>188</v>
-      </c>
-      <c r="J168" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>49</v>
-      </c>
-      <c r="B169" t="s">
-        <v>100</v>
-      </c>
-      <c r="C169" t="s">
-        <v>224</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="F169" t="s">
-        <v>188</v>
-      </c>
-      <c r="H169" t="s">
-        <v>188</v>
-      </c>
-      <c r="J169" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>51</v>
-      </c>
-      <c r="B170" t="s">
-        <v>109</v>
-      </c>
-      <c r="C170" t="s">
-        <v>224</v>
-      </c>
-      <c r="D170">
-        <v>27</v>
-      </c>
-      <c r="F170" t="s">
-        <v>188</v>
-      </c>
-      <c r="J170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>26</v>
-      </c>
-      <c r="B171" t="s">
-        <v>28</v>
-      </c>
-      <c r="C171" t="s">
-        <v>224</v>
-      </c>
-      <c r="D171">
-        <v>12</v>
-      </c>
-      <c r="H171" t="s">
-        <v>188</v>
-      </c>
-      <c r="J171" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>51</v>
-      </c>
-      <c r="B172" t="s">
-        <v>107</v>
-      </c>
-      <c r="C172" t="s">
-        <v>224</v>
-      </c>
-      <c r="D172">
-        <v>6</v>
-      </c>
-      <c r="H172" t="s">
-        <v>188</v>
-      </c>
-      <c r="J172" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>17</v>
-      </c>
-      <c r="B173" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" t="s">
-        <v>224</v>
-      </c>
-      <c r="D173">
-        <v>60</v>
-      </c>
-      <c r="K173" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>28</v>
-      </c>
-      <c r="B174" t="s">
-        <v>38</v>
-      </c>
-      <c r="C174" t="s">
-        <v>224</v>
-      </c>
-      <c r="D174">
-        <v>7</v>
-      </c>
-      <c r="G174" t="s">
-        <v>189</v>
-      </c>
-      <c r="K174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>28</v>
-      </c>
-      <c r="B175" t="s">
-        <v>40</v>
-      </c>
-      <c r="C175" t="s">
-        <v>224</v>
-      </c>
-      <c r="D175">
-        <v>2</v>
-      </c>
-      <c r="F175" t="s">
-        <v>189</v>
-      </c>
-      <c r="K175" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>27</v>
-      </c>
-      <c r="B176" t="s">
-        <v>34</v>
-      </c>
-      <c r="C176" t="s">
-        <v>224</v>
-      </c>
-      <c r="D176">
-        <v>6</v>
-      </c>
-      <c r="F176" t="s">
-        <v>189</v>
-      </c>
-      <c r="G176" t="s">
-        <v>189</v>
-      </c>
-      <c r="K176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>49</v>
-      </c>
-      <c r="B177" t="s">
-        <v>101</v>
-      </c>
-      <c r="C177" t="s">
-        <v>224</v>
-      </c>
-      <c r="D177">
-        <v>22</v>
-      </c>
-      <c r="F177" t="s">
-        <v>189</v>
-      </c>
-      <c r="G177" t="s">
-        <v>189</v>
-      </c>
-      <c r="K177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>26</v>
-      </c>
-      <c r="B178" t="s">
-        <v>31</v>
-      </c>
-      <c r="C178" t="s">
-        <v>224</v>
-      </c>
-      <c r="D178">
-        <v>42</v>
-      </c>
-      <c r="F178" t="s">
-        <v>189</v>
-      </c>
-      <c r="K178" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>51</v>
-      </c>
-      <c r="B179" t="s">
-        <v>110</v>
-      </c>
-      <c r="C179" t="s">
-        <v>224</v>
-      </c>
-      <c r="D179">
-        <v>25</v>
-      </c>
-      <c r="F179" t="s">
-        <v>189</v>
-      </c>
-      <c r="K179" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>26</v>
-      </c>
-      <c r="B180" t="s">
-        <v>29</v>
-      </c>
-      <c r="C180" t="s">
-        <v>224</v>
-      </c>
-      <c r="D180">
-        <v>43</v>
-      </c>
-      <c r="G180" t="s">
-        <v>189</v>
-      </c>
-      <c r="K180" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>51</v>
-      </c>
-      <c r="B181" t="s">
-        <v>108</v>
-      </c>
-      <c r="C181" t="s">
-        <v>224</v>
-      </c>
-      <c r="D181">
-        <v>3</v>
-      </c>
-      <c r="G181" t="s">
-        <v>189</v>
-      </c>
-      <c r="K181" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>16</v>
-      </c>
-      <c r="B182" t="s">
-        <v>10</v>
-      </c>
-      <c r="C182" t="s">
-        <v>224</v>
-      </c>
-      <c r="D182">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>25</v>
-      </c>
-      <c r="B183" t="s">
-        <v>25</v>
-      </c>
-      <c r="C183" t="s">
-        <v>224</v>
-      </c>
-      <c r="D183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>25</v>
-      </c>
-      <c r="B184" t="s">
-        <v>24</v>
-      </c>
-      <c r="C184" t="s">
-        <v>224</v>
-      </c>
-      <c r="D184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>25</v>
-      </c>
-      <c r="B185" t="s">
-        <v>23</v>
-      </c>
-      <c r="C185" t="s">
-        <v>224</v>
-      </c>
-      <c r="D185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>47</v>
-      </c>
-      <c r="B186" t="s">
-        <v>97</v>
-      </c>
-      <c r="C186" t="s">
-        <v>224</v>
-      </c>
-      <c r="D186">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D188">
-        <f>SUM(D189:D212)</f>
-        <v>2929</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>37</v>
-      </c>
-      <c r="B189" t="s">
-        <v>74</v>
-      </c>
-      <c r="C189" t="s">
-        <v>235</v>
-      </c>
-      <c r="D189">
-        <v>12</v>
-      </c>
-      <c r="F189" t="s">
-        <v>190</v>
-      </c>
-      <c r="G189" t="s">
-        <v>191</v>
-      </c>
-      <c r="I189" t="s">
-        <v>187</v>
-      </c>
-      <c r="J189" t="s">
-        <v>200</v>
-      </c>
-      <c r="K189" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>66</v>
-      </c>
-      <c r="B190" t="s">
-        <v>166</v>
-      </c>
-      <c r="C190" t="s">
-        <v>235</v>
-      </c>
-      <c r="D190">
-        <v>52</v>
-      </c>
-      <c r="F190" t="s">
-        <v>190</v>
-      </c>
-      <c r="G190" t="s">
-        <v>191</v>
-      </c>
-      <c r="I190" t="s">
-        <v>187</v>
-      </c>
-      <c r="J190" t="s">
-        <v>200</v>
-      </c>
-      <c r="K190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>40</v>
-      </c>
-      <c r="B191" t="s">
-        <v>80</v>
-      </c>
-      <c r="C191" t="s">
-        <v>235</v>
-      </c>
-      <c r="D191">
-        <v>78</v>
-      </c>
-      <c r="F191" t="s">
-        <v>190</v>
-      </c>
-      <c r="G191" t="s">
-        <v>187</v>
-      </c>
-      <c r="I191" t="s">
-        <v>187</v>
-      </c>
-      <c r="J191" t="s">
-        <v>200</v>
-      </c>
-      <c r="K191" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>36</v>
-      </c>
-      <c r="B192" t="s">
-        <v>73</v>
-      </c>
-      <c r="C192" t="s">
-        <v>235</v>
-      </c>
-      <c r="D192">
-        <v>153</v>
-      </c>
-      <c r="F192" t="s">
-        <v>190</v>
-      </c>
-      <c r="G192" t="s">
-        <v>187</v>
-      </c>
-      <c r="I192" t="s">
-        <v>187</v>
-      </c>
-      <c r="J192" t="s">
-        <v>200</v>
-      </c>
-      <c r="K192" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>63</v>
-      </c>
-      <c r="B193" t="s">
-        <v>162</v>
-      </c>
-      <c r="C193" t="s">
-        <v>235</v>
-      </c>
-      <c r="D193">
-        <v>155</v>
-      </c>
-      <c r="F193" t="s">
-        <v>190</v>
-      </c>
-      <c r="G193" t="s">
-        <v>187</v>
-      </c>
-      <c r="I193" t="s">
-        <v>187</v>
-      </c>
-      <c r="J193" t="s">
-        <v>200</v>
-      </c>
-      <c r="K193" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>40</v>
-      </c>
-      <c r="B194" t="s">
-        <v>79</v>
-      </c>
-      <c r="C194" t="s">
-        <v>235</v>
-      </c>
-      <c r="D194">
-        <v>68</v>
-      </c>
-      <c r="F194" t="s">
-        <v>188</v>
-      </c>
-      <c r="G194" t="s">
-        <v>191</v>
-      </c>
-      <c r="I194" t="s">
-        <v>187</v>
-      </c>
-      <c r="J194" t="s">
-        <v>200</v>
-      </c>
-      <c r="K194" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>36</v>
-      </c>
-      <c r="B195" t="s">
-        <v>72</v>
-      </c>
-      <c r="C195" t="s">
-        <v>235</v>
-      </c>
-      <c r="D195">
-        <v>118</v>
-      </c>
-      <c r="F195" t="s">
-        <v>188</v>
-      </c>
-      <c r="G195" t="s">
-        <v>191</v>
-      </c>
-      <c r="I195" t="s">
-        <v>187</v>
-      </c>
-      <c r="J195" t="s">
-        <v>200</v>
-      </c>
-      <c r="K195" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>63</v>
-      </c>
-      <c r="B196" t="s">
-        <v>161</v>
-      </c>
-      <c r="C196" t="s">
-        <v>235</v>
-      </c>
-      <c r="D196">
-        <v>179</v>
-      </c>
-      <c r="F196" t="s">
-        <v>188</v>
-      </c>
-      <c r="G196" t="s">
-        <v>191</v>
-      </c>
-      <c r="I196" t="s">
-        <v>187</v>
-      </c>
-      <c r="J196" t="s">
-        <v>200</v>
-      </c>
-      <c r="K196" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>20</v>
-      </c>
-      <c r="B197" t="s">
-        <v>17</v>
-      </c>
-      <c r="C197" t="s">
-        <v>235</v>
-      </c>
-      <c r="D197">
-        <v>946</v>
-      </c>
-      <c r="F197" t="s">
-        <v>188</v>
-      </c>
-      <c r="G197" t="s">
-        <v>187</v>
-      </c>
-      <c r="I197" t="s">
-        <v>187</v>
-      </c>
-      <c r="J197" t="s">
-        <v>200</v>
-      </c>
-      <c r="K197" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>68</v>
-      </c>
-      <c r="B198" t="s">
-        <v>170</v>
-      </c>
-      <c r="C198" t="s">
-        <v>235</v>
-      </c>
-      <c r="D198">
-        <v>85</v>
-      </c>
-      <c r="F198" t="s">
-        <v>190</v>
-      </c>
-      <c r="G198" t="s">
-        <v>191</v>
-      </c>
-      <c r="H198" t="s">
-        <v>192</v>
-      </c>
-      <c r="I198" t="s">
-        <v>187</v>
-      </c>
-      <c r="J198" t="s">
-        <v>200</v>
-      </c>
-      <c r="K198" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>68</v>
-      </c>
-      <c r="B199" t="s">
-        <v>169</v>
-      </c>
-      <c r="C199" t="s">
-        <v>235</v>
-      </c>
-      <c r="D199">
-        <v>8</v>
-      </c>
-      <c r="F199" t="s">
-        <v>190</v>
-      </c>
-      <c r="G199" t="s">
-        <v>191</v>
-      </c>
-      <c r="H199" t="s">
-        <v>192</v>
-      </c>
-      <c r="I199" t="s">
-        <v>187</v>
-      </c>
-      <c r="J199" t="s">
-        <v>200</v>
-      </c>
-      <c r="K199" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>41</v>
-      </c>
-      <c r="B200" t="s">
-        <v>81</v>
-      </c>
-      <c r="C200" t="s">
-        <v>235</v>
-      </c>
-      <c r="D200">
-        <v>343</v>
-      </c>
-      <c r="F200" t="s">
-        <v>190</v>
-      </c>
-      <c r="G200" t="s">
-        <v>187</v>
-      </c>
-      <c r="H200" t="s">
-        <v>192</v>
-      </c>
-      <c r="I200" t="s">
-        <v>187</v>
-      </c>
-      <c r="J200" t="s">
-        <v>200</v>
-      </c>
-      <c r="K200" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>41</v>
-      </c>
-      <c r="B201" t="s">
-        <v>82</v>
-      </c>
-      <c r="C201" t="s">
-        <v>235</v>
-      </c>
-      <c r="D201">
-        <v>272</v>
-      </c>
-      <c r="F201" t="s">
-        <v>188</v>
-      </c>
-      <c r="G201" t="s">
-        <v>191</v>
-      </c>
-      <c r="H201" t="s">
-        <v>192</v>
-      </c>
-      <c r="I201" t="s">
-        <v>187</v>
-      </c>
-      <c r="J201" t="s">
-        <v>200</v>
-      </c>
-      <c r="K201" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>64</v>
-      </c>
-      <c r="B202" t="s">
-        <v>163</v>
-      </c>
-      <c r="C202" t="s">
-        <v>235</v>
-      </c>
-      <c r="D202">
-        <v>208</v>
-      </c>
-      <c r="F202" t="s">
-        <v>190</v>
-      </c>
-      <c r="G202" t="s">
-        <v>187</v>
-      </c>
-      <c r="H202" t="s">
-        <v>192</v>
-      </c>
-      <c r="I202" t="s">
-        <v>187</v>
-      </c>
-      <c r="J202" t="s">
-        <v>200</v>
-      </c>
-      <c r="K202" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>64</v>
-      </c>
-      <c r="B203" t="s">
-        <v>164</v>
-      </c>
-      <c r="C203" t="s">
-        <v>235</v>
-      </c>
-      <c r="D203">
-        <v>188</v>
-      </c>
-      <c r="F203" t="s">
-        <v>188</v>
-      </c>
-      <c r="G203" t="s">
-        <v>191</v>
-      </c>
-      <c r="H203" t="s">
-        <v>192</v>
-      </c>
-      <c r="I203" t="s">
-        <v>187</v>
-      </c>
-      <c r="J203" t="s">
-        <v>200</v>
-      </c>
-      <c r="K203" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>21</v>
-      </c>
-      <c r="B204" t="s">
-        <v>18</v>
-      </c>
-      <c r="C204" t="s">
-        <v>208</v>
-      </c>
-      <c r="D204">
-        <v>9</v>
-      </c>
-      <c r="F204" t="s">
-        <v>188</v>
-      </c>
-      <c r="G204" t="s">
-        <v>187</v>
-      </c>
-      <c r="I204" t="s">
-        <v>187</v>
-      </c>
-      <c r="J204" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>38</v>
-      </c>
-      <c r="B205" t="s">
-        <v>76</v>
-      </c>
-      <c r="C205" t="s">
-        <v>208</v>
-      </c>
-      <c r="D205">
-        <v>3</v>
-      </c>
-      <c r="F205" t="s">
-        <v>188</v>
-      </c>
-      <c r="G205" t="s">
-        <v>187</v>
-      </c>
-      <c r="I205" t="s">
-        <v>187</v>
-      </c>
-      <c r="J205" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>38</v>
-      </c>
-      <c r="B206" t="s">
-        <v>75</v>
-      </c>
-      <c r="C206" t="s">
-        <v>208</v>
-      </c>
-      <c r="D206">
-        <v>9</v>
-      </c>
-      <c r="F206" t="s">
-        <v>188</v>
-      </c>
-      <c r="G206" t="s">
-        <v>187</v>
-      </c>
-      <c r="I206" t="s">
-        <v>187</v>
-      </c>
-      <c r="J206" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>35</v>
-      </c>
-      <c r="B207" t="s">
-        <v>71</v>
-      </c>
-      <c r="C207" t="s">
-        <v>208</v>
-      </c>
-      <c r="D207">
-        <v>1</v>
-      </c>
-      <c r="F207" t="s">
-        <v>188</v>
-      </c>
-      <c r="G207" t="s">
-        <v>187</v>
-      </c>
-      <c r="I207" t="s">
-        <v>187</v>
-      </c>
-      <c r="J207" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>65</v>
-      </c>
-      <c r="B208" t="s">
-        <v>165</v>
-      </c>
-      <c r="C208" t="s">
-        <v>208</v>
-      </c>
-      <c r="D208">
-        <v>7</v>
-      </c>
-      <c r="F208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G208" t="s">
-        <v>187</v>
-      </c>
-      <c r="I208" t="s">
-        <v>187</v>
-      </c>
-      <c r="J208" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>39</v>
-      </c>
-      <c r="B209" t="s">
-        <v>78</v>
-      </c>
-      <c r="C209" t="s">
-        <v>208</v>
-      </c>
-      <c r="D209">
-        <v>7</v>
-      </c>
-      <c r="F209" t="s">
-        <v>188</v>
-      </c>
-      <c r="G209" t="s">
-        <v>187</v>
-      </c>
-      <c r="H209" t="s">
-        <v>192</v>
-      </c>
-      <c r="I209" t="s">
-        <v>187</v>
-      </c>
-      <c r="J209" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>39</v>
-      </c>
-      <c r="B210" t="s">
-        <v>77</v>
-      </c>
-      <c r="C210" t="s">
-        <v>208</v>
-      </c>
-      <c r="D210">
-        <v>23</v>
-      </c>
-      <c r="F210" t="s">
-        <v>188</v>
-      </c>
-      <c r="G210" t="s">
-        <v>187</v>
-      </c>
-      <c r="H210" t="s">
-        <v>192</v>
-      </c>
-      <c r="I210" t="s">
-        <v>187</v>
-      </c>
-      <c r="J210" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>67</v>
-      </c>
-      <c r="B211" t="s">
-        <v>167</v>
-      </c>
-      <c r="C211" t="s">
-        <v>208</v>
-      </c>
-      <c r="D211">
-        <v>5</v>
-      </c>
-      <c r="F211" t="s">
-        <v>188</v>
-      </c>
-      <c r="G211" t="s">
-        <v>187</v>
-      </c>
-      <c r="H211" t="s">
-        <v>192</v>
-      </c>
-      <c r="I211" t="s">
-        <v>187</v>
-      </c>
-      <c r="J211" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>67</v>
-      </c>
-      <c r="B212" t="s">
-        <v>168</v>
-      </c>
-      <c r="C212" t="s">
-        <v>208</v>
-      </c>
-      <c r="D212">
-        <v>0</v>
-      </c>
-      <c r="F212" t="s">
-        <v>188</v>
-      </c>
-      <c r="G212" t="s">
-        <v>187</v>
-      </c>
-      <c r="H212" t="s">
-        <v>192</v>
-      </c>
-      <c r="I212" t="s">
-        <v>187</v>
-      </c>
-      <c r="J212" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D154C47-0A69-1C46-8595-34C42B00C9A5}">
   <dimension ref="A1:N203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C172" sqref="C172:C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10961,13 +6273,13 @@
         <v>214</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="G1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -11005,7 +6317,7 @@
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D3">
         <v>2370</v>
@@ -11037,7 +6349,7 @@
         <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D4">
         <v>414</v>
@@ -11069,7 +6381,7 @@
         <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D5">
         <v>127</v>
@@ -11101,7 +6413,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D6">
         <v>836</v>
@@ -11139,7 +6451,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D9">
         <v>47</v>
@@ -11171,7 +6483,7 @@
         <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -11203,7 +6515,7 @@
         <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -11235,7 +6547,7 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D12">
         <v>80</v>
@@ -11267,7 +6579,7 @@
         <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D13">
         <v>176</v>
@@ -11305,7 +6617,7 @@
         <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D16">
         <v>275</v>
@@ -11337,7 +6649,7 @@
         <v>220</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -11369,7 +6681,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D18">
         <v>241</v>
@@ -11392,7 +6704,7 @@
         <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -11415,7 +6727,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D20">
         <v>68</v>
@@ -11438,7 +6750,7 @@
         <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D21">
         <v>486</v>
@@ -11461,7 +6773,7 @@
         <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D22">
         <v>12</v>
@@ -11484,7 +6796,7 @@
         <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D23">
         <v>115</v>
@@ -11507,7 +6819,7 @@
         <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -11533,7 +6845,7 @@
         <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D25">
         <v>97</v>
@@ -11559,7 +6871,7 @@
         <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D26">
         <v>40</v>
@@ -11585,7 +6897,7 @@
         <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D27">
         <v>21</v>
@@ -11611,7 +6923,7 @@
         <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D28">
         <v>65</v>
@@ -11637,7 +6949,7 @@
         <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D29">
         <v>77</v>
@@ -11663,7 +6975,7 @@
         <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D30">
         <v>12</v>
@@ -11689,7 +7001,7 @@
         <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D31">
         <v>83</v>
@@ -11715,7 +7027,7 @@
         <v>178</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D32">
         <v>111</v>
@@ -11741,7 +7053,7 @@
         <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D33">
         <v>118</v>
@@ -11767,7 +7079,7 @@
         <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D34">
         <v>44</v>
@@ -11793,7 +7105,7 @@
         <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D35">
         <v>26</v>
@@ -11819,7 +7131,7 @@
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D36">
         <v>130</v>
@@ -11845,7 +7157,7 @@
         <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D37">
         <v>19</v>
@@ -11871,7 +7183,7 @@
         <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D38">
         <v>162</v>
@@ -11900,7 +7212,7 @@
         <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D39">
         <v>130</v>
@@ -11929,7 +7241,7 @@
         <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D40">
         <v>386</v>
@@ -11958,7 +7270,7 @@
         <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D41">
         <v>181</v>
@@ -12005,7 +7317,7 @@
         <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D44">
         <v>123</v>
@@ -12043,7 +7355,7 @@
         <v>166</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D45">
         <v>168</v>
@@ -12081,7 +7393,7 @@
         <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D46">
         <v>37</v>
@@ -12119,7 +7431,7 @@
         <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D47">
         <v>883</v>
@@ -12157,7 +7469,7 @@
         <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D48">
         <v>521</v>
@@ -12195,7 +7507,7 @@
         <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D49">
         <v>215</v>
@@ -12233,7 +7545,7 @@
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D50">
         <v>712</v>
@@ -12271,7 +7583,7 @@
         <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D51">
         <v>1375</v>
@@ -12309,7 +7621,7 @@
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D52">
         <v>1745</v>
@@ -12347,7 +7659,7 @@
         <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D53">
         <v>369</v>
@@ -12388,7 +7700,7 @@
         <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D54">
         <v>47</v>
@@ -12429,7 +7741,7 @@
         <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D55">
         <v>277</v>
@@ -12470,7 +7782,7 @@
         <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D56">
         <v>789</v>
@@ -12511,7 +7823,7 @@
         <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D57">
         <v>717</v>
@@ -12552,7 +7864,7 @@
         <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D58">
         <v>604</v>
@@ -12593,7 +7905,7 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D59">
         <v>76</v>
@@ -12628,7 +7940,7 @@
         <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D60">
         <v>51</v>
@@ -12663,7 +7975,7 @@
         <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D61">
         <v>46</v>
@@ -12698,7 +8010,7 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D62">
         <v>30</v>
@@ -12733,7 +8045,7 @@
         <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D63">
         <v>353</v>
@@ -12768,7 +8080,7 @@
         <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D64">
         <v>61</v>
@@ -12806,7 +8118,7 @@
         <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D65">
         <v>14</v>
@@ -12844,7 +8156,7 @@
         <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D66">
         <v>98</v>
@@ -12882,7 +8194,7 @@
         <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D67">
         <v>17</v>
@@ -12926,7 +8238,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D70">
         <v>24328</v>
@@ -12949,7 +8261,7 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -12972,7 +8284,7 @@
         <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D72">
         <v>417</v>
@@ -12995,7 +8307,7 @@
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D73">
         <v>43</v>
@@ -13018,7 +8330,7 @@
         <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D74">
         <v>248</v>
@@ -13041,7 +8353,7 @@
         <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D75">
         <v>39</v>
@@ -13064,7 +8376,7 @@
         <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D76">
         <v>252</v>
@@ -13087,7 +8399,7 @@
         <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D77">
         <v>71</v>
@@ -13116,7 +8428,7 @@
         <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D80">
         <v>1584</v>
@@ -13142,7 +8454,7 @@
         <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D81">
         <v>2048</v>
@@ -13168,7 +8480,7 @@
         <v>115</v>
       </c>
       <c r="C82" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D82">
         <v>234</v>
@@ -13194,7 +8506,7 @@
         <v>116</v>
       </c>
       <c r="C83" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D83">
         <v>217</v>
@@ -13220,7 +8532,7 @@
         <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D84">
         <v>2479</v>
@@ -13246,7 +8558,7 @@
         <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D85">
         <v>2280</v>
@@ -13278,7 +8590,7 @@
         <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D88">
         <v>1768</v>
@@ -13304,7 +8616,7 @@
         <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D89">
         <v>91</v>
@@ -13330,7 +8642,7 @@
         <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D90">
         <v>1973</v>
@@ -13356,7 +8668,7 @@
         <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D91">
         <v>549</v>
@@ -13382,7 +8694,7 @@
         <v>155</v>
       </c>
       <c r="C92" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D92">
         <v>1161</v>
@@ -13408,7 +8720,7 @@
         <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D93">
         <v>179</v>
@@ -13440,7 +8752,7 @@
         <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D96">
         <v>654</v>
@@ -13466,7 +8778,7 @@
         <v>156</v>
       </c>
       <c r="C97" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D97">
         <v>999</v>
@@ -13492,7 +8804,7 @@
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D98">
         <v>111</v>
@@ -13518,7 +8830,7 @@
         <v>113</v>
       </c>
       <c r="C99" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D99">
         <v>68</v>
@@ -13544,7 +8856,7 @@
         <v>66</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D100">
         <v>1559</v>
@@ -13570,7 +8882,7 @@
         <v>159</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D101">
         <v>1836</v>
@@ -13602,7 +8914,7 @@
         <v>149</v>
       </c>
       <c r="C104" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D104">
         <v>1430</v>
@@ -13631,7 +8943,7 @@
         <v>132</v>
       </c>
       <c r="C105" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D105">
         <v>697</v>
@@ -13660,7 +8972,7 @@
         <v>147</v>
       </c>
       <c r="C106" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D106">
         <v>988</v>
@@ -13689,7 +9001,7 @@
         <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D107">
         <v>1540</v>
@@ -13718,7 +9030,7 @@
         <v>133</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D108">
         <v>821</v>
@@ -13747,7 +9059,7 @@
         <v>148</v>
       </c>
       <c r="C109" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D109">
         <v>764</v>
@@ -13776,7 +9088,7 @@
         <v>134</v>
       </c>
       <c r="C110" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D110">
         <v>990</v>
@@ -13805,7 +9117,7 @@
         <v>152</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D111">
         <v>823</v>
@@ -13834,7 +9146,7 @@
         <v>151</v>
       </c>
       <c r="C112" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D112">
         <v>528</v>
@@ -13863,7 +9175,7 @@
         <v>153</v>
       </c>
       <c r="C114" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D114">
         <v>11343</v>
@@ -13895,7 +9207,7 @@
         <v>154</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D116">
         <v>10035</v>
@@ -13933,7 +9245,7 @@
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D119">
         <v>151</v>
@@ -13953,7 +9265,7 @@
         <v>56</v>
       </c>
       <c r="C120" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D120">
         <v>39</v>
@@ -13973,7 +9285,7 @@
         <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D121">
         <v>81</v>
@@ -13993,7 +9305,7 @@
         <v>58</v>
       </c>
       <c r="C122" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D122">
         <v>62</v>
@@ -14013,7 +9325,7 @@
         <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D123">
         <v>3</v>
@@ -14036,7 +9348,7 @@
         <v>50</v>
       </c>
       <c r="C124" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D124">
         <v>12</v>
@@ -14059,7 +9371,7 @@
         <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -14082,7 +9394,7 @@
         <v>52</v>
       </c>
       <c r="C126" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D126">
         <v>10</v>
@@ -14105,7 +9417,7 @@
         <v>61</v>
       </c>
       <c r="C127" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D127">
         <v>5</v>
@@ -14131,7 +9443,7 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D128">
         <v>49</v>
@@ -14157,7 +9469,7 @@
         <v>104</v>
       </c>
       <c r="C129" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D129">
         <v>7</v>
@@ -14183,7 +9495,7 @@
         <v>44</v>
       </c>
       <c r="C130" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D130">
         <v>320</v>
@@ -14209,7 +9521,7 @@
         <v>138</v>
       </c>
       <c r="C131" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D131">
         <v>22</v>
@@ -14235,7 +9547,7 @@
         <v>46</v>
       </c>
       <c r="C132" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D132">
         <v>278</v>
@@ -14261,7 +9573,7 @@
         <v>140</v>
       </c>
       <c r="C133" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D133">
         <v>27</v>
@@ -14287,7 +9599,7 @@
         <v>126</v>
       </c>
       <c r="C134" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D134">
         <v>18</v>
@@ -14316,7 +9628,7 @@
         <v>128</v>
       </c>
       <c r="C135" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D135">
         <v>19</v>
@@ -14345,7 +9657,7 @@
         <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D136">
         <v>149</v>
@@ -14365,7 +9677,7 @@
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D137">
         <v>569</v>
@@ -14385,7 +9697,7 @@
         <v>57</v>
       </c>
       <c r="C138" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D138">
         <v>222</v>
@@ -14405,7 +9717,7 @@
         <v>55</v>
       </c>
       <c r="C139" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D139">
         <v>54</v>
@@ -14425,7 +9737,7 @@
         <v>51</v>
       </c>
       <c r="C140" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D140">
         <v>43</v>
@@ -14448,7 +9760,7 @@
         <v>121</v>
       </c>
       <c r="C141" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D141">
         <v>30</v>
@@ -14471,7 +9783,7 @@
         <v>49</v>
       </c>
       <c r="C142" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D142">
         <v>9</v>
@@ -14494,7 +9806,7 @@
         <v>119</v>
       </c>
       <c r="C143" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D143">
         <v>11</v>
@@ -14517,7 +9829,7 @@
         <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D144">
         <v>14</v>
@@ -14543,7 +9855,7 @@
         <v>45</v>
       </c>
       <c r="C145" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D145">
         <v>418</v>
@@ -14569,7 +9881,7 @@
         <v>139</v>
       </c>
       <c r="C146" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D146">
         <v>114</v>
@@ -14595,7 +9907,7 @@
         <v>130</v>
       </c>
       <c r="C147" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D147">
         <v>74</v>
@@ -14621,7 +9933,7 @@
         <v>103</v>
       </c>
       <c r="C148" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D148">
         <v>28</v>
@@ -14647,7 +9959,7 @@
         <v>43</v>
       </c>
       <c r="C149" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D149">
         <v>470</v>
@@ -14673,7 +9985,7 @@
         <v>137</v>
       </c>
       <c r="C150" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D150">
         <v>90</v>
@@ -14699,7 +10011,7 @@
         <v>125</v>
       </c>
       <c r="C151" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D151">
         <v>34</v>
@@ -14728,7 +10040,7 @@
         <v>127</v>
       </c>
       <c r="C152" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D152">
         <v>59</v>
@@ -14757,7 +10069,7 @@
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D153">
         <v>1962</v>
@@ -14777,7 +10089,7 @@
         <v>54</v>
       </c>
       <c r="C154" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D154">
         <v>191</v>
@@ -14797,7 +10109,7 @@
         <v>53</v>
       </c>
       <c r="C155" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D155">
         <v>97</v>
@@ -14817,7 +10129,7 @@
         <v>144</v>
       </c>
       <c r="C156" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D156" s="1">
         <v>255</v>
@@ -14840,7 +10152,7 @@
         <v>47</v>
       </c>
       <c r="C157" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D157">
         <v>9</v>
@@ -14863,7 +10175,7 @@
         <v>117</v>
       </c>
       <c r="C158" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D158">
         <v>55</v>
@@ -14886,7 +10198,7 @@
         <v>118</v>
       </c>
       <c r="C159" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D159">
         <v>53</v>
@@ -14909,7 +10221,7 @@
         <v>48</v>
       </c>
       <c r="C160" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D160">
         <v>32</v>
@@ -14932,7 +10244,7 @@
         <v>41</v>
       </c>
       <c r="C161" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D161">
         <v>1800</v>
@@ -14958,7 +10270,7 @@
         <v>135</v>
       </c>
       <c r="C162" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D162" s="1">
         <v>412</v>
@@ -14987,7 +10299,7 @@
         <v>129</v>
       </c>
       <c r="C163" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D163" s="1">
         <v>506</v>
@@ -15016,7 +10328,7 @@
         <v>59</v>
       </c>
       <c r="C164" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D164">
         <v>143</v>
@@ -15042,7 +10354,7 @@
         <v>102</v>
       </c>
       <c r="C165" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D165">
         <v>66</v>
@@ -15068,7 +10380,7 @@
         <v>42</v>
       </c>
       <c r="C166" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D166">
         <v>1510</v>
@@ -15094,7 +10406,7 @@
         <v>136</v>
       </c>
       <c r="C167" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D167" s="1">
         <v>285</v>
@@ -15123,7 +10435,7 @@
         <v>124</v>
       </c>
       <c r="C168" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D168" s="1">
         <v>147</v>
@@ -15155,7 +10467,7 @@
         <v>123</v>
       </c>
       <c r="C169" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D169" s="1">
         <v>112</v>
@@ -15193,7 +10505,7 @@
         <v>215</v>
       </c>
       <c r="C172" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D172">
         <v>7</v>
@@ -15210,7 +10522,7 @@
         <v>32</v>
       </c>
       <c r="C173" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D173">
         <v>16</v>
@@ -15233,7 +10545,7 @@
         <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D174">
         <v>19</v>
@@ -15253,7 +10565,7 @@
         <v>26</v>
       </c>
       <c r="C175" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D175">
         <v>9</v>
@@ -15273,7 +10585,7 @@
         <v>35</v>
       </c>
       <c r="C176" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -15293,7 +10605,7 @@
         <v>36</v>
       </c>
       <c r="C177" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -15313,7 +10625,7 @@
         <v>99</v>
       </c>
       <c r="C178" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -15336,7 +10648,7 @@
         <v>106</v>
       </c>
       <c r="C179" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D179">
         <v>18</v>
@@ -15356,7 +10668,7 @@
         <v>105</v>
       </c>
       <c r="C180" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D180">
         <v>11</v>
@@ -15376,7 +10688,7 @@
         <v>11</v>
       </c>
       <c r="C181" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D181">
         <v>7</v>
@@ -15393,7 +10705,7 @@
         <v>37</v>
       </c>
       <c r="C182" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -15413,7 +10725,7 @@
         <v>33</v>
       </c>
       <c r="C183" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D183">
         <v>7</v>
@@ -15436,7 +10748,7 @@
         <v>30</v>
       </c>
       <c r="C184" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D184">
         <v>35</v>
@@ -15456,7 +10768,7 @@
         <v>39</v>
       </c>
       <c r="C185" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -15476,7 +10788,7 @@
         <v>100</v>
       </c>
       <c r="C186" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -15499,7 +10811,7 @@
         <v>109</v>
       </c>
       <c r="C187" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D187">
         <v>2</v>
@@ -15519,7 +10831,7 @@
         <v>28</v>
       </c>
       <c r="C188" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D188">
         <v>26</v>
@@ -15539,7 +10851,7 @@
         <v>107</v>
       </c>
       <c r="C189" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D189">
         <v>24</v>
@@ -15559,7 +10871,7 @@
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D190">
         <v>51</v>
@@ -15576,7 +10888,7 @@
         <v>38</v>
       </c>
       <c r="C191" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D191">
         <v>13</v>
@@ -15596,7 +10908,7 @@
         <v>40</v>
       </c>
       <c r="C192" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D192">
         <v>8</v>
@@ -15616,7 +10928,7 @@
         <v>34</v>
       </c>
       <c r="C193" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D193">
         <v>5</v>
@@ -15639,7 +10951,7 @@
         <v>101</v>
       </c>
       <c r="C194" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D194">
         <v>19</v>
@@ -15662,7 +10974,7 @@
         <v>31</v>
       </c>
       <c r="C195" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D195">
         <v>47</v>
@@ -15682,7 +10994,7 @@
         <v>110</v>
       </c>
       <c r="C196" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D196">
         <v>32</v>
@@ -15702,7 +11014,7 @@
         <v>29</v>
       </c>
       <c r="C197" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D197">
         <v>59</v>
@@ -15722,7 +11034,7 @@
         <v>108</v>
       </c>
       <c r="C198" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D198">
         <v>57</v>
@@ -15742,7 +11054,7 @@
         <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D199">
         <v>26</v>
@@ -15756,7 +11068,7 @@
         <v>25</v>
       </c>
       <c r="C200" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D200">
         <v>7</v>
@@ -15770,7 +11082,7 @@
         <v>24</v>
       </c>
       <c r="C201" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D201">
         <v>11</v>
@@ -15784,7 +11096,7 @@
         <v>23</v>
       </c>
       <c r="C202" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D202">
         <v>12</v>
@@ -15798,7 +11110,7 @@
         <v>97</v>
       </c>
       <c r="C203" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D203">
         <v>128</v>
@@ -15812,16 +11124,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC97E7B2-CD49-3E49-A19E-E59CA308682C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/GroupSpec_orthorhombic.xlsx
+++ b/data/GroupSpec_orthorhombic.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FB9E4-9716-DC44-9677-916E8C162BC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D19931-45E2-0045-AC53-B74222CF905C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="27340" windowHeight="17760" activeTab="1" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="1100" yWindow="-20180" windowWidth="27340" windowHeight="17760" activeTab="2" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Groups V4" sheetId="3" r:id="rId2"/>
+    <sheet name="Groups_V5" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="238">
   <si>
     <t>spacegroup number</t>
   </si>
@@ -6245,8 +6246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D154C47-0A69-1C46-8595-34C42B00C9A5}">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172:C203"/>
+    <sheetView topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A82" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11124,4 +11125,4866 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A6B385-4E1F-7448-99EC-C8317FA67C94}">
+  <dimension ref="A1:N195"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>SUM(D3:D6)</f>
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3">
+        <v>2370</v>
+      </c>
+      <c r="I3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4">
+        <v>414</v>
+      </c>
+      <c r="I4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" t="s">
+        <v>221</v>
+      </c>
+      <c r="M4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5">
+        <v>127</v>
+      </c>
+      <c r="I5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6">
+        <v>836</v>
+      </c>
+      <c r="I6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>SUM(D9:D13)</f>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" t="s">
+        <v>188</v>
+      </c>
+      <c r="N12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13">
+        <v>176</v>
+      </c>
+      <c r="I13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" t="s">
+        <v>188</v>
+      </c>
+      <c r="N13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f>SUM(D16:D41)</f>
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16">
+        <v>275</v>
+      </c>
+      <c r="I16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18">
+        <v>241</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="s">
+        <v>188</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20">
+        <v>68</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="s">
+        <v>188</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21">
+        <v>486</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s">
+        <v>188</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="s">
+        <v>188</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23">
+        <v>115</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="s">
+        <v>188</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25">
+        <v>97</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s">
+        <v>188</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="s">
+        <v>188</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" t="s">
+        <v>188</v>
+      </c>
+      <c r="N28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>191</v>
+      </c>
+      <c r="L30" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32">
+        <v>111</v>
+      </c>
+      <c r="J32" t="s">
+        <v>191</v>
+      </c>
+      <c r="L32" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" t="s">
+        <v>188</v>
+      </c>
+      <c r="N32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33">
+        <v>118</v>
+      </c>
+      <c r="K33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L33" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" t="s">
+        <v>188</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34">
+        <v>44</v>
+      </c>
+      <c r="K34" t="s">
+        <v>192</v>
+      </c>
+      <c r="L34" t="s">
+        <v>187</v>
+      </c>
+      <c r="M34" t="s">
+        <v>188</v>
+      </c>
+      <c r="N34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>192</v>
+      </c>
+      <c r="L35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36">
+        <v>130</v>
+      </c>
+      <c r="K36" t="s">
+        <v>192</v>
+      </c>
+      <c r="L36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" t="s">
+        <v>188</v>
+      </c>
+      <c r="N37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38">
+        <v>162</v>
+      </c>
+      <c r="I38" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" t="s">
+        <v>191</v>
+      </c>
+      <c r="L38" t="s">
+        <v>187</v>
+      </c>
+      <c r="M38" t="s">
+        <v>188</v>
+      </c>
+      <c r="N38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39">
+        <v>130</v>
+      </c>
+      <c r="I39" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" t="s">
+        <v>188</v>
+      </c>
+      <c r="N39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40">
+        <v>386</v>
+      </c>
+      <c r="J40" t="s">
+        <v>191</v>
+      </c>
+      <c r="K40" t="s">
+        <v>192</v>
+      </c>
+      <c r="L40" t="s">
+        <v>187</v>
+      </c>
+      <c r="M40" t="s">
+        <v>188</v>
+      </c>
+      <c r="N40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41">
+        <v>181</v>
+      </c>
+      <c r="J41" t="s">
+        <v>191</v>
+      </c>
+      <c r="K41" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" t="s">
+        <v>187</v>
+      </c>
+      <c r="M41" t="s">
+        <v>188</v>
+      </c>
+      <c r="N41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f>SUM(D44:D67)</f>
+        <v>9328</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:G43" si="0">SUM(E44:E67)</f>
+        <v>2963</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>3419</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44">
+        <v>123</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>87</v>
+      </c>
+      <c r="I44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J44" t="s">
+        <v>191</v>
+      </c>
+      <c r="L44" t="s">
+        <v>187</v>
+      </c>
+      <c r="M44" t="s">
+        <v>200</v>
+      </c>
+      <c r="N44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45">
+        <v>168</v>
+      </c>
+      <c r="E45">
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <v>55</v>
+      </c>
+      <c r="G45">
+        <v>58</v>
+      </c>
+      <c r="I45" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" t="s">
+        <v>200</v>
+      </c>
+      <c r="N45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L46" t="s">
+        <v>187</v>
+      </c>
+      <c r="M46" t="s">
+        <v>200</v>
+      </c>
+      <c r="N46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47">
+        <v>883</v>
+      </c>
+      <c r="E47">
+        <v>142</v>
+      </c>
+      <c r="F47">
+        <v>258</v>
+      </c>
+      <c r="G47">
+        <v>483</v>
+      </c>
+      <c r="I47" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" t="s">
+        <v>187</v>
+      </c>
+      <c r="L47" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" t="s">
+        <v>200</v>
+      </c>
+      <c r="N47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48">
+        <v>521</v>
+      </c>
+      <c r="E48">
+        <v>191</v>
+      </c>
+      <c r="F48">
+        <v>145</v>
+      </c>
+      <c r="G48">
+        <v>185</v>
+      </c>
+      <c r="I48" t="s">
+        <v>190</v>
+      </c>
+      <c r="J48" t="s">
+        <v>187</v>
+      </c>
+      <c r="L48" t="s">
+        <v>187</v>
+      </c>
+      <c r="M48" t="s">
+        <v>200</v>
+      </c>
+      <c r="N48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49">
+        <v>215</v>
+      </c>
+      <c r="E49">
+        <v>92</v>
+      </c>
+      <c r="F49">
+        <v>103</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J49" t="s">
+        <v>191</v>
+      </c>
+      <c r="L49" t="s">
+        <v>187</v>
+      </c>
+      <c r="M49" t="s">
+        <v>200</v>
+      </c>
+      <c r="N49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50">
+        <v>712</v>
+      </c>
+      <c r="E50">
+        <v>142</v>
+      </c>
+      <c r="F50">
+        <v>341</v>
+      </c>
+      <c r="G50">
+        <v>229</v>
+      </c>
+      <c r="I50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J50" t="s">
+        <v>191</v>
+      </c>
+      <c r="L50" t="s">
+        <v>187</v>
+      </c>
+      <c r="M50" t="s">
+        <v>200</v>
+      </c>
+      <c r="N50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51">
+        <v>1375</v>
+      </c>
+      <c r="E51">
+        <v>359</v>
+      </c>
+      <c r="F51">
+        <v>629</v>
+      </c>
+      <c r="G51">
+        <v>387</v>
+      </c>
+      <c r="I51" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" t="s">
+        <v>191</v>
+      </c>
+      <c r="L51" t="s">
+        <v>187</v>
+      </c>
+      <c r="M51" t="s">
+        <v>200</v>
+      </c>
+      <c r="N51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52">
+        <v>1745</v>
+      </c>
+      <c r="E52">
+        <v>971</v>
+      </c>
+      <c r="F52">
+        <v>527</v>
+      </c>
+      <c r="G52">
+        <v>247</v>
+      </c>
+      <c r="I52" t="s">
+        <v>188</v>
+      </c>
+      <c r="J52" t="s">
+        <v>187</v>
+      </c>
+      <c r="L52" t="s">
+        <v>187</v>
+      </c>
+      <c r="M52" t="s">
+        <v>200</v>
+      </c>
+      <c r="N52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53">
+        <v>369</v>
+      </c>
+      <c r="E53">
+        <v>76</v>
+      </c>
+      <c r="F53">
+        <v>121</v>
+      </c>
+      <c r="G53">
+        <v>172</v>
+      </c>
+      <c r="I53" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" t="s">
+        <v>191</v>
+      </c>
+      <c r="K53" t="s">
+        <v>192</v>
+      </c>
+      <c r="L53" t="s">
+        <v>187</v>
+      </c>
+      <c r="M53" t="s">
+        <v>200</v>
+      </c>
+      <c r="N53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54">
+        <v>47</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" t="s">
+        <v>191</v>
+      </c>
+      <c r="K54" t="s">
+        <v>192</v>
+      </c>
+      <c r="L54" t="s">
+        <v>187</v>
+      </c>
+      <c r="M54" t="s">
+        <v>200</v>
+      </c>
+      <c r="N54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55">
+        <v>277</v>
+      </c>
+      <c r="E55">
+        <v>115</v>
+      </c>
+      <c r="F55">
+        <v>66</v>
+      </c>
+      <c r="G55">
+        <v>96</v>
+      </c>
+      <c r="I55" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55" t="s">
+        <v>187</v>
+      </c>
+      <c r="K55" t="s">
+        <v>192</v>
+      </c>
+      <c r="L55" t="s">
+        <v>187</v>
+      </c>
+      <c r="M55" t="s">
+        <v>200</v>
+      </c>
+      <c r="N55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56">
+        <v>789</v>
+      </c>
+      <c r="E56">
+        <v>284</v>
+      </c>
+      <c r="F56">
+        <v>363</v>
+      </c>
+      <c r="G56">
+        <v>142</v>
+      </c>
+      <c r="I56" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" t="s">
+        <v>191</v>
+      </c>
+      <c r="K56" t="s">
+        <v>192</v>
+      </c>
+      <c r="L56" t="s">
+        <v>187</v>
+      </c>
+      <c r="M56" t="s">
+        <v>200</v>
+      </c>
+      <c r="N56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57">
+        <v>717</v>
+      </c>
+      <c r="E57">
+        <v>211</v>
+      </c>
+      <c r="F57">
+        <v>282</v>
+      </c>
+      <c r="G57">
+        <v>224</v>
+      </c>
+      <c r="I57" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" t="s">
+        <v>187</v>
+      </c>
+      <c r="K57" t="s">
+        <v>192</v>
+      </c>
+      <c r="L57" t="s">
+        <v>187</v>
+      </c>
+      <c r="M57" t="s">
+        <v>200</v>
+      </c>
+      <c r="N57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58">
+        <v>604</v>
+      </c>
+      <c r="E58">
+        <v>210</v>
+      </c>
+      <c r="F58">
+        <v>267</v>
+      </c>
+      <c r="G58">
+        <v>127</v>
+      </c>
+      <c r="I58" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" t="s">
+        <v>191</v>
+      </c>
+      <c r="K58" t="s">
+        <v>192</v>
+      </c>
+      <c r="L58" t="s">
+        <v>187</v>
+      </c>
+      <c r="M58" t="s">
+        <v>200</v>
+      </c>
+      <c r="N58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59">
+        <v>76</v>
+      </c>
+      <c r="E59">
+        <v>13</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>53</v>
+      </c>
+      <c r="I59" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59" t="s">
+        <v>187</v>
+      </c>
+      <c r="L59" t="s">
+        <v>187</v>
+      </c>
+      <c r="M59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60">
+        <v>51</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="G60">
+        <v>35</v>
+      </c>
+      <c r="I60" t="s">
+        <v>188</v>
+      </c>
+      <c r="J60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M60" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61">
+        <v>46</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61" t="s">
+        <v>187</v>
+      </c>
+      <c r="L61" t="s">
+        <v>187</v>
+      </c>
+      <c r="M61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>188</v>
+      </c>
+      <c r="J62" t="s">
+        <v>187</v>
+      </c>
+      <c r="L62" t="s">
+        <v>187</v>
+      </c>
+      <c r="M62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63">
+        <v>353</v>
+      </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>108</v>
+      </c>
+      <c r="G63">
+        <v>227</v>
+      </c>
+      <c r="I63" t="s">
+        <v>188</v>
+      </c>
+      <c r="J63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L63" t="s">
+        <v>187</v>
+      </c>
+      <c r="M63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64">
+        <v>61</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>26</v>
+      </c>
+      <c r="G64">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>188</v>
+      </c>
+      <c r="J64" t="s">
+        <v>187</v>
+      </c>
+      <c r="K64" t="s">
+        <v>192</v>
+      </c>
+      <c r="L64" t="s">
+        <v>187</v>
+      </c>
+      <c r="M64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>188</v>
+      </c>
+      <c r="J65" t="s">
+        <v>187</v>
+      </c>
+      <c r="K65" t="s">
+        <v>192</v>
+      </c>
+      <c r="L65" t="s">
+        <v>187</v>
+      </c>
+      <c r="M65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66">
+        <v>98</v>
+      </c>
+      <c r="E66">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <v>45</v>
+      </c>
+      <c r="G66">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s">
+        <v>188</v>
+      </c>
+      <c r="J66" t="s">
+        <v>187</v>
+      </c>
+      <c r="K66" t="s">
+        <v>192</v>
+      </c>
+      <c r="L66" t="s">
+        <v>187</v>
+      </c>
+      <c r="M66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>188</v>
+      </c>
+      <c r="J67" t="s">
+        <v>187</v>
+      </c>
+      <c r="K67" t="s">
+        <v>192</v>
+      </c>
+      <c r="L67" t="s">
+        <v>187</v>
+      </c>
+      <c r="M67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <f>SUM(D70:D77)</f>
+        <v>25398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70">
+        <v>24328</v>
+      </c>
+      <c r="L70" t="s">
+        <v>187</v>
+      </c>
+      <c r="M70" t="s">
+        <v>188</v>
+      </c>
+      <c r="N70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>187</v>
+      </c>
+      <c r="M71" t="s">
+        <v>188</v>
+      </c>
+      <c r="N71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72">
+        <v>417</v>
+      </c>
+      <c r="L72" t="s">
+        <v>187</v>
+      </c>
+      <c r="M72" t="s">
+        <v>188</v>
+      </c>
+      <c r="N72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73">
+        <v>43</v>
+      </c>
+      <c r="L73" t="s">
+        <v>187</v>
+      </c>
+      <c r="M73" t="s">
+        <v>188</v>
+      </c>
+      <c r="N73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74">
+        <v>248</v>
+      </c>
+      <c r="L74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M74" t="s">
+        <v>188</v>
+      </c>
+      <c r="N74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75">
+        <v>39</v>
+      </c>
+      <c r="L75" t="s">
+        <v>187</v>
+      </c>
+      <c r="M75" t="s">
+        <v>188</v>
+      </c>
+      <c r="N75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>58</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76">
+        <v>252</v>
+      </c>
+      <c r="L76" t="s">
+        <v>187</v>
+      </c>
+      <c r="M76" t="s">
+        <v>188</v>
+      </c>
+      <c r="N76" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77">
+        <v>71</v>
+      </c>
+      <c r="L77" t="s">
+        <v>187</v>
+      </c>
+      <c r="M77" t="s">
+        <v>188</v>
+      </c>
+      <c r="N77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <f>SUM(D80:D97)</f>
+        <v>19790</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80">
+        <v>1584</v>
+      </c>
+      <c r="I80" t="s">
+        <v>188</v>
+      </c>
+      <c r="L80" t="s">
+        <v>187</v>
+      </c>
+      <c r="M80" t="s">
+        <v>188</v>
+      </c>
+      <c r="N80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>62</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81">
+        <v>2048</v>
+      </c>
+      <c r="I81" t="s">
+        <v>188</v>
+      </c>
+      <c r="L81" t="s">
+        <v>187</v>
+      </c>
+      <c r="M81" t="s">
+        <v>188</v>
+      </c>
+      <c r="N81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>52</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82">
+        <v>234</v>
+      </c>
+      <c r="I82" t="s">
+        <v>188</v>
+      </c>
+      <c r="L82" t="s">
+        <v>187</v>
+      </c>
+      <c r="M82" t="s">
+        <v>188</v>
+      </c>
+      <c r="N82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" t="s">
+        <v>230</v>
+      </c>
+      <c r="D83">
+        <v>217</v>
+      </c>
+      <c r="I83" t="s">
+        <v>189</v>
+      </c>
+      <c r="L83" t="s">
+        <v>187</v>
+      </c>
+      <c r="M83" t="s">
+        <v>188</v>
+      </c>
+      <c r="N83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84">
+        <v>2479</v>
+      </c>
+      <c r="I84" t="s">
+        <v>189</v>
+      </c>
+      <c r="L84" t="s">
+        <v>187</v>
+      </c>
+      <c r="M84" t="s">
+        <v>188</v>
+      </c>
+      <c r="N84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>62</v>
+      </c>
+      <c r="B85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D85">
+        <v>2280</v>
+      </c>
+      <c r="I85" t="s">
+        <v>189</v>
+      </c>
+      <c r="L85" t="s">
+        <v>187</v>
+      </c>
+      <c r="M85" t="s">
+        <v>188</v>
+      </c>
+      <c r="N85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86">
+        <v>1768</v>
+      </c>
+      <c r="J86" t="s">
+        <v>189</v>
+      </c>
+      <c r="L86" t="s">
+        <v>187</v>
+      </c>
+      <c r="M86" t="s">
+        <v>188</v>
+      </c>
+      <c r="N86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>52</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87">
+        <v>91</v>
+      </c>
+      <c r="J87" t="s">
+        <v>189</v>
+      </c>
+      <c r="L87" t="s">
+        <v>187</v>
+      </c>
+      <c r="M87" t="s">
+        <v>188</v>
+      </c>
+      <c r="N87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88">
+        <v>1973</v>
+      </c>
+      <c r="J88" t="s">
+        <v>189</v>
+      </c>
+      <c r="L88" t="s">
+        <v>187</v>
+      </c>
+      <c r="M88" t="s">
+        <v>188</v>
+      </c>
+      <c r="N88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89">
+        <v>549</v>
+      </c>
+      <c r="J89" t="s">
+        <v>187</v>
+      </c>
+      <c r="L89" t="s">
+        <v>187</v>
+      </c>
+      <c r="M89" t="s">
+        <v>188</v>
+      </c>
+      <c r="N89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>62</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90">
+        <v>1161</v>
+      </c>
+      <c r="J90" t="s">
+        <v>187</v>
+      </c>
+      <c r="L90" t="s">
+        <v>187</v>
+      </c>
+      <c r="M90" t="s">
+        <v>188</v>
+      </c>
+      <c r="N90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>52</v>
+      </c>
+      <c r="B91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" t="s">
+        <v>230</v>
+      </c>
+      <c r="D91">
+        <v>179</v>
+      </c>
+      <c r="J91" t="s">
+        <v>187</v>
+      </c>
+      <c r="L91" t="s">
+        <v>187</v>
+      </c>
+      <c r="M91" t="s">
+        <v>188</v>
+      </c>
+      <c r="N91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>33</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s">
+        <v>230</v>
+      </c>
+      <c r="D92">
+        <v>654</v>
+      </c>
+      <c r="K92" t="s">
+        <v>187</v>
+      </c>
+      <c r="L92" t="s">
+        <v>187</v>
+      </c>
+      <c r="M92" t="s">
+        <v>188</v>
+      </c>
+      <c r="N92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" t="s">
+        <v>230</v>
+      </c>
+      <c r="D93">
+        <v>999</v>
+      </c>
+      <c r="K93" t="s">
+        <v>187</v>
+      </c>
+      <c r="L93" t="s">
+        <v>187</v>
+      </c>
+      <c r="M93" t="s">
+        <v>188</v>
+      </c>
+      <c r="N93" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>52</v>
+      </c>
+      <c r="B94" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94">
+        <v>111</v>
+      </c>
+      <c r="K94" t="s">
+        <v>187</v>
+      </c>
+      <c r="L94" t="s">
+        <v>187</v>
+      </c>
+      <c r="M94" t="s">
+        <v>188</v>
+      </c>
+      <c r="N94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>52</v>
+      </c>
+      <c r="B95" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95">
+        <v>68</v>
+      </c>
+      <c r="K95" t="s">
+        <v>188</v>
+      </c>
+      <c r="L95" t="s">
+        <v>187</v>
+      </c>
+      <c r="M95" t="s">
+        <v>188</v>
+      </c>
+      <c r="N95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96">
+        <v>1559</v>
+      </c>
+      <c r="K96" t="s">
+        <v>188</v>
+      </c>
+      <c r="L96" t="s">
+        <v>187</v>
+      </c>
+      <c r="M96" t="s">
+        <v>188</v>
+      </c>
+      <c r="N96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>62</v>
+      </c>
+      <c r="B97" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97">
+        <v>1836</v>
+      </c>
+      <c r="K97" t="s">
+        <v>188</v>
+      </c>
+      <c r="L97" t="s">
+        <v>187</v>
+      </c>
+      <c r="M97" t="s">
+        <v>188</v>
+      </c>
+      <c r="N97" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <f>SUM(D100:D110)</f>
+        <v>29959</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>60</v>
+      </c>
+      <c r="B100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100">
+        <v>1430</v>
+      </c>
+      <c r="I100" t="s">
+        <v>189</v>
+      </c>
+      <c r="J100" t="s">
+        <v>187</v>
+      </c>
+      <c r="L100" t="s">
+        <v>187</v>
+      </c>
+      <c r="M100" t="s">
+        <v>188</v>
+      </c>
+      <c r="N100" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>56</v>
+      </c>
+      <c r="B101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" t="s">
+        <v>231</v>
+      </c>
+      <c r="D101">
+        <v>697</v>
+      </c>
+      <c r="I101" t="s">
+        <v>189</v>
+      </c>
+      <c r="J101" t="s">
+        <v>189</v>
+      </c>
+      <c r="L101" t="s">
+        <v>187</v>
+      </c>
+      <c r="M101" t="s">
+        <v>188</v>
+      </c>
+      <c r="N101" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>60</v>
+      </c>
+      <c r="B102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" t="s">
+        <v>231</v>
+      </c>
+      <c r="D102">
+        <v>988</v>
+      </c>
+      <c r="I102" t="s">
+        <v>188</v>
+      </c>
+      <c r="J102" t="s">
+        <v>189</v>
+      </c>
+      <c r="L102" t="s">
+        <v>187</v>
+      </c>
+      <c r="M102" t="s">
+        <v>188</v>
+      </c>
+      <c r="N102" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" t="s">
+        <v>231</v>
+      </c>
+      <c r="D103">
+        <v>1540</v>
+      </c>
+      <c r="I103" t="s">
+        <v>188</v>
+      </c>
+      <c r="K103" t="s">
+        <v>187</v>
+      </c>
+      <c r="L103" t="s">
+        <v>187</v>
+      </c>
+      <c r="M103" t="s">
+        <v>188</v>
+      </c>
+      <c r="N103" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" t="s">
+        <v>231</v>
+      </c>
+      <c r="D104">
+        <v>821</v>
+      </c>
+      <c r="I104" t="s">
+        <v>188</v>
+      </c>
+      <c r="K104" t="s">
+        <v>188</v>
+      </c>
+      <c r="L104" t="s">
+        <v>187</v>
+      </c>
+      <c r="M104" t="s">
+        <v>188</v>
+      </c>
+      <c r="N104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>60</v>
+      </c>
+      <c r="B105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" t="s">
+        <v>231</v>
+      </c>
+      <c r="D105">
+        <v>764</v>
+      </c>
+      <c r="I105" t="s">
+        <v>189</v>
+      </c>
+      <c r="K105" t="s">
+        <v>188</v>
+      </c>
+      <c r="L105" t="s">
+        <v>187</v>
+      </c>
+      <c r="M105" t="s">
+        <v>188</v>
+      </c>
+      <c r="N105" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D106">
+        <v>990</v>
+      </c>
+      <c r="J106" t="s">
+        <v>187</v>
+      </c>
+      <c r="K106" t="s">
+        <v>187</v>
+      </c>
+      <c r="L106" t="s">
+        <v>187</v>
+      </c>
+      <c r="M106" t="s">
+        <v>188</v>
+      </c>
+      <c r="N106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>60</v>
+      </c>
+      <c r="B107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107">
+        <v>823</v>
+      </c>
+      <c r="J107" t="s">
+        <v>187</v>
+      </c>
+      <c r="K107" t="s">
+        <v>188</v>
+      </c>
+      <c r="L107" t="s">
+        <v>187</v>
+      </c>
+      <c r="M107" t="s">
+        <v>188</v>
+      </c>
+      <c r="N107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>60</v>
+      </c>
+      <c r="B108" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108">
+        <v>528</v>
+      </c>
+      <c r="J108" t="s">
+        <v>189</v>
+      </c>
+      <c r="K108" t="s">
+        <v>187</v>
+      </c>
+      <c r="L108" t="s">
+        <v>187</v>
+      </c>
+      <c r="M108" t="s">
+        <v>188</v>
+      </c>
+      <c r="N108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>61</v>
+      </c>
+      <c r="B109" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" t="s">
+        <v>231</v>
+      </c>
+      <c r="D109">
+        <v>11343</v>
+      </c>
+      <c r="I109" t="s">
+        <v>188</v>
+      </c>
+      <c r="J109" t="s">
+        <v>189</v>
+      </c>
+      <c r="K109" t="s">
+        <v>187</v>
+      </c>
+      <c r="L109" t="s">
+        <v>187</v>
+      </c>
+      <c r="M109" t="s">
+        <v>188</v>
+      </c>
+      <c r="N109" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>61</v>
+      </c>
+      <c r="B110" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110">
+        <v>10035</v>
+      </c>
+      <c r="I110" t="s">
+        <v>189</v>
+      </c>
+      <c r="J110" t="s">
+        <v>187</v>
+      </c>
+      <c r="K110" t="s">
+        <v>188</v>
+      </c>
+      <c r="L110" t="s">
+        <v>187</v>
+      </c>
+      <c r="M110" t="s">
+        <v>188</v>
+      </c>
+      <c r="N110" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <f>SUM(D113:D195)</f>
+        <v>11792</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113">
+        <v>151</v>
+      </c>
+      <c r="L113" t="s">
+        <v>187</v>
+      </c>
+      <c r="M113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>31</v>
+      </c>
+      <c r="B114" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114">
+        <v>39</v>
+      </c>
+      <c r="L114" t="s">
+        <v>187</v>
+      </c>
+      <c r="M114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>59</v>
+      </c>
+      <c r="B115" t="s">
+        <v>146</v>
+      </c>
+      <c r="C115" t="s">
+        <v>232</v>
+      </c>
+      <c r="D115">
+        <v>81</v>
+      </c>
+      <c r="L115" t="s">
+        <v>187</v>
+      </c>
+      <c r="M115" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>31</v>
+      </c>
+      <c r="B116" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" t="s">
+        <v>232</v>
+      </c>
+      <c r="D116">
+        <v>62</v>
+      </c>
+      <c r="L116" t="s">
+        <v>187</v>
+      </c>
+      <c r="M116" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>53</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="I117" t="s">
+        <v>188</v>
+      </c>
+      <c r="L117" t="s">
+        <v>187</v>
+      </c>
+      <c r="M117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>50</v>
+      </c>
+      <c r="C118" t="s">
+        <v>232</v>
+      </c>
+      <c r="D118">
+        <v>12</v>
+      </c>
+      <c r="I118" t="s">
+        <v>188</v>
+      </c>
+      <c r="L118" t="s">
+        <v>187</v>
+      </c>
+      <c r="M118" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>53</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" t="s">
+        <v>232</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="J119" t="s">
+        <v>187</v>
+      </c>
+      <c r="L119" t="s">
+        <v>187</v>
+      </c>
+      <c r="M119" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>30</v>
+      </c>
+      <c r="B120" t="s">
+        <v>52</v>
+      </c>
+      <c r="C120" t="s">
+        <v>232</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="J120" t="s">
+        <v>187</v>
+      </c>
+      <c r="L120" t="s">
+        <v>187</v>
+      </c>
+      <c r="M120" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>32</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" t="s">
+        <v>232</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="I121" t="s">
+        <v>188</v>
+      </c>
+      <c r="J121" t="s">
+        <v>187</v>
+      </c>
+      <c r="L121" t="s">
+        <v>187</v>
+      </c>
+      <c r="M121" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>55</v>
+      </c>
+      <c r="B122" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" t="s">
+        <v>232</v>
+      </c>
+      <c r="D122">
+        <v>49</v>
+      </c>
+      <c r="I122" t="s">
+        <v>188</v>
+      </c>
+      <c r="J122" t="s">
+        <v>187</v>
+      </c>
+      <c r="L122" t="s">
+        <v>187</v>
+      </c>
+      <c r="M122" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>50</v>
+      </c>
+      <c r="B123" t="s">
+        <v>104</v>
+      </c>
+      <c r="C123" t="s">
+        <v>232</v>
+      </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
+      <c r="I123" t="s">
+        <v>188</v>
+      </c>
+      <c r="J123" t="s">
+        <v>187</v>
+      </c>
+      <c r="L123" t="s">
+        <v>187</v>
+      </c>
+      <c r="M123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>29</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>232</v>
+      </c>
+      <c r="D124">
+        <v>320</v>
+      </c>
+      <c r="I124" t="s">
+        <v>188</v>
+      </c>
+      <c r="K124" t="s">
+        <v>187</v>
+      </c>
+      <c r="L124" t="s">
+        <v>187</v>
+      </c>
+      <c r="M124" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>57</v>
+      </c>
+      <c r="B125" t="s">
+        <v>138</v>
+      </c>
+      <c r="C125" t="s">
+        <v>232</v>
+      </c>
+      <c r="D125">
+        <v>22</v>
+      </c>
+      <c r="I125" t="s">
+        <v>188</v>
+      </c>
+      <c r="K125" t="s">
+        <v>187</v>
+      </c>
+      <c r="L125" t="s">
+        <v>187</v>
+      </c>
+      <c r="M125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>29</v>
+      </c>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" t="s">
+        <v>232</v>
+      </c>
+      <c r="D126">
+        <v>278</v>
+      </c>
+      <c r="J126" t="s">
+        <v>187</v>
+      </c>
+      <c r="K126" t="s">
+        <v>188</v>
+      </c>
+      <c r="L126" t="s">
+        <v>187</v>
+      </c>
+      <c r="M126" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>57</v>
+      </c>
+      <c r="B127" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" t="s">
+        <v>232</v>
+      </c>
+      <c r="D127">
+        <v>27</v>
+      </c>
+      <c r="J127" t="s">
+        <v>187</v>
+      </c>
+      <c r="K127" t="s">
+        <v>188</v>
+      </c>
+      <c r="L127" t="s">
+        <v>187</v>
+      </c>
+      <c r="M127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>54</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>232</v>
+      </c>
+      <c r="D128">
+        <v>18</v>
+      </c>
+      <c r="I128" t="s">
+        <v>188</v>
+      </c>
+      <c r="J128" t="s">
+        <v>187</v>
+      </c>
+      <c r="K128" t="s">
+        <v>187</v>
+      </c>
+      <c r="L128" t="s">
+        <v>187</v>
+      </c>
+      <c r="M128" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>54</v>
+      </c>
+      <c r="B129" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" t="s">
+        <v>232</v>
+      </c>
+      <c r="D129">
+        <v>19</v>
+      </c>
+      <c r="I129" t="s">
+        <v>188</v>
+      </c>
+      <c r="J129" t="s">
+        <v>187</v>
+      </c>
+      <c r="K129" t="s">
+        <v>188</v>
+      </c>
+      <c r="L129" t="s">
+        <v>187</v>
+      </c>
+      <c r="M129" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>59</v>
+      </c>
+      <c r="B130" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" t="s">
+        <v>232</v>
+      </c>
+      <c r="D130">
+        <v>149</v>
+      </c>
+      <c r="L130" t="s">
+        <v>187</v>
+      </c>
+      <c r="N130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>18</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>232</v>
+      </c>
+      <c r="D131">
+        <v>569</v>
+      </c>
+      <c r="L131" t="s">
+        <v>187</v>
+      </c>
+      <c r="N131" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>31</v>
+      </c>
+      <c r="B132" t="s">
+        <v>57</v>
+      </c>
+      <c r="C132" t="s">
+        <v>232</v>
+      </c>
+      <c r="D132">
+        <v>222</v>
+      </c>
+      <c r="L132" t="s">
+        <v>187</v>
+      </c>
+      <c r="N132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>31</v>
+      </c>
+      <c r="B133" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" t="s">
+        <v>232</v>
+      </c>
+      <c r="D133">
+        <v>54</v>
+      </c>
+      <c r="L133" t="s">
+        <v>187</v>
+      </c>
+      <c r="N133" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>51</v>
+      </c>
+      <c r="C134" t="s">
+        <v>232</v>
+      </c>
+      <c r="D134">
+        <v>43</v>
+      </c>
+      <c r="K134" t="s">
+        <v>187</v>
+      </c>
+      <c r="L134" t="s">
+        <v>187</v>
+      </c>
+      <c r="N134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>53</v>
+      </c>
+      <c r="B135" t="s">
+        <v>121</v>
+      </c>
+      <c r="C135" t="s">
+        <v>232</v>
+      </c>
+      <c r="D135">
+        <v>30</v>
+      </c>
+      <c r="K135" t="s">
+        <v>187</v>
+      </c>
+      <c r="L135" t="s">
+        <v>187</v>
+      </c>
+      <c r="N135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>30</v>
+      </c>
+      <c r="B136" t="s">
+        <v>49</v>
+      </c>
+      <c r="C136" t="s">
+        <v>232</v>
+      </c>
+      <c r="D136">
+        <v>9</v>
+      </c>
+      <c r="I136" t="s">
+        <v>189</v>
+      </c>
+      <c r="L136" t="s">
+        <v>187</v>
+      </c>
+      <c r="N136" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>53</v>
+      </c>
+      <c r="B137" t="s">
+        <v>119</v>
+      </c>
+      <c r="C137" t="s">
+        <v>232</v>
+      </c>
+      <c r="D137">
+        <v>11</v>
+      </c>
+      <c r="I137" t="s">
+        <v>189</v>
+      </c>
+      <c r="L137" t="s">
+        <v>187</v>
+      </c>
+      <c r="N137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>32</v>
+      </c>
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" t="s">
+        <v>232</v>
+      </c>
+      <c r="D138">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>189</v>
+      </c>
+      <c r="K138" t="s">
+        <v>187</v>
+      </c>
+      <c r="L138" t="s">
+        <v>187</v>
+      </c>
+      <c r="N138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>29</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" t="s">
+        <v>232</v>
+      </c>
+      <c r="D139">
+        <v>418</v>
+      </c>
+      <c r="I139" t="s">
+        <v>189</v>
+      </c>
+      <c r="K139" t="s">
+        <v>187</v>
+      </c>
+      <c r="L139" t="s">
+        <v>187</v>
+      </c>
+      <c r="N139" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>57</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+      <c r="C140" t="s">
+        <v>232</v>
+      </c>
+      <c r="D140">
+        <v>114</v>
+      </c>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+      <c r="K140" t="s">
+        <v>187</v>
+      </c>
+      <c r="L140" t="s">
+        <v>187</v>
+      </c>
+      <c r="N140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>55</v>
+      </c>
+      <c r="B141" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141" t="s">
+        <v>232</v>
+      </c>
+      <c r="D141">
+        <v>74</v>
+      </c>
+      <c r="I141" t="s">
+        <v>189</v>
+      </c>
+      <c r="K141" t="s">
+        <v>187</v>
+      </c>
+      <c r="L141" t="s">
+        <v>187</v>
+      </c>
+      <c r="N141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>50</v>
+      </c>
+      <c r="B142" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142" t="s">
+        <v>232</v>
+      </c>
+      <c r="D142">
+        <v>28</v>
+      </c>
+      <c r="I142" t="s">
+        <v>189</v>
+      </c>
+      <c r="K142" t="s">
+        <v>187</v>
+      </c>
+      <c r="L142" t="s">
+        <v>187</v>
+      </c>
+      <c r="N142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>29</v>
+      </c>
+      <c r="B143" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" t="s">
+        <v>232</v>
+      </c>
+      <c r="D143">
+        <v>470</v>
+      </c>
+      <c r="J143" t="s">
+        <v>189</v>
+      </c>
+      <c r="K143" t="s">
+        <v>187</v>
+      </c>
+      <c r="L143" t="s">
+        <v>187</v>
+      </c>
+      <c r="N143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>57</v>
+      </c>
+      <c r="B144" t="s">
+        <v>137</v>
+      </c>
+      <c r="C144" t="s">
+        <v>232</v>
+      </c>
+      <c r="D144">
+        <v>90</v>
+      </c>
+      <c r="J144" t="s">
+        <v>189</v>
+      </c>
+      <c r="K144" t="s">
+        <v>187</v>
+      </c>
+      <c r="L144" t="s">
+        <v>187</v>
+      </c>
+      <c r="N144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>54</v>
+      </c>
+      <c r="B145" t="s">
+        <v>125</v>
+      </c>
+      <c r="C145" t="s">
+        <v>232</v>
+      </c>
+      <c r="D145">
+        <v>34</v>
+      </c>
+      <c r="I145" t="s">
+        <v>189</v>
+      </c>
+      <c r="J145" t="s">
+        <v>189</v>
+      </c>
+      <c r="K145" t="s">
+        <v>187</v>
+      </c>
+      <c r="L145" t="s">
+        <v>187</v>
+      </c>
+      <c r="N145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>54</v>
+      </c>
+      <c r="B146" t="s">
+        <v>127</v>
+      </c>
+      <c r="C146" t="s">
+        <v>232</v>
+      </c>
+      <c r="D146">
+        <v>59</v>
+      </c>
+      <c r="I146" t="s">
+        <v>189</v>
+      </c>
+      <c r="J146" t="s">
+        <v>187</v>
+      </c>
+      <c r="K146" t="s">
+        <v>187</v>
+      </c>
+      <c r="L146" t="s">
+        <v>187</v>
+      </c>
+      <c r="N146" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>18</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>232</v>
+      </c>
+      <c r="D147">
+        <v>1962</v>
+      </c>
+      <c r="M147" t="s">
+        <v>188</v>
+      </c>
+      <c r="N147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>31</v>
+      </c>
+      <c r="B148" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" t="s">
+        <v>232</v>
+      </c>
+      <c r="D148">
+        <v>191</v>
+      </c>
+      <c r="M148" t="s">
+        <v>188</v>
+      </c>
+      <c r="N148" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>31</v>
+      </c>
+      <c r="B149" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" t="s">
+        <v>232</v>
+      </c>
+      <c r="D149">
+        <v>97</v>
+      </c>
+      <c r="M149" t="s">
+        <v>188</v>
+      </c>
+      <c r="N149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>59</v>
+      </c>
+      <c r="B150" t="s">
+        <v>144</v>
+      </c>
+      <c r="C150" t="s">
+        <v>232</v>
+      </c>
+      <c r="D150" s="1">
+        <v>255</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="M150" t="s">
+        <v>188</v>
+      </c>
+      <c r="N150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>30</v>
+      </c>
+      <c r="B151" t="s">
+        <v>47</v>
+      </c>
+      <c r="C151" t="s">
+        <v>232</v>
+      </c>
+      <c r="D151">
+        <v>9</v>
+      </c>
+      <c r="J151" t="s">
+        <v>189</v>
+      </c>
+      <c r="M151" t="s">
+        <v>188</v>
+      </c>
+      <c r="N151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>53</v>
+      </c>
+      <c r="B152" t="s">
+        <v>117</v>
+      </c>
+      <c r="C152" t="s">
+        <v>232</v>
+      </c>
+      <c r="D152">
+        <v>55</v>
+      </c>
+      <c r="J152" t="s">
+        <v>189</v>
+      </c>
+      <c r="M152" t="s">
+        <v>188</v>
+      </c>
+      <c r="N152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>53</v>
+      </c>
+      <c r="B153" t="s">
+        <v>118</v>
+      </c>
+      <c r="C153" t="s">
+        <v>232</v>
+      </c>
+      <c r="D153">
+        <v>53</v>
+      </c>
+      <c r="K153" t="s">
+        <v>188</v>
+      </c>
+      <c r="M153" t="s">
+        <v>188</v>
+      </c>
+      <c r="N153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>30</v>
+      </c>
+      <c r="B154" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154" t="s">
+        <v>232</v>
+      </c>
+      <c r="D154">
+        <v>32</v>
+      </c>
+      <c r="K154" t="s">
+        <v>188</v>
+      </c>
+      <c r="M154" t="s">
+        <v>188</v>
+      </c>
+      <c r="N154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>29</v>
+      </c>
+      <c r="B155" t="s">
+        <v>41</v>
+      </c>
+      <c r="C155" t="s">
+        <v>232</v>
+      </c>
+      <c r="D155">
+        <v>1800</v>
+      </c>
+      <c r="I155" t="s">
+        <v>188</v>
+      </c>
+      <c r="J155" t="s">
+        <v>189</v>
+      </c>
+      <c r="M155" t="s">
+        <v>188</v>
+      </c>
+      <c r="N155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>57</v>
+      </c>
+      <c r="B156" t="s">
+        <v>135</v>
+      </c>
+      <c r="C156" t="s">
+        <v>232</v>
+      </c>
+      <c r="D156" s="1">
+        <v>412</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="I156" t="s">
+        <v>188</v>
+      </c>
+      <c r="J156" t="s">
+        <v>189</v>
+      </c>
+      <c r="M156" t="s">
+        <v>188</v>
+      </c>
+      <c r="N156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>55</v>
+      </c>
+      <c r="B157" t="s">
+        <v>129</v>
+      </c>
+      <c r="C157" t="s">
+        <v>232</v>
+      </c>
+      <c r="D157" s="1">
+        <v>506</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="J157" t="s">
+        <v>189</v>
+      </c>
+      <c r="K157" t="s">
+        <v>188</v>
+      </c>
+      <c r="M157" t="s">
+        <v>188</v>
+      </c>
+      <c r="N157" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>32</v>
+      </c>
+      <c r="B158" t="s">
+        <v>59</v>
+      </c>
+      <c r="C158" t="s">
+        <v>232</v>
+      </c>
+      <c r="D158">
+        <v>143</v>
+      </c>
+      <c r="J158" t="s">
+        <v>189</v>
+      </c>
+      <c r="K158" t="s">
+        <v>188</v>
+      </c>
+      <c r="M158" t="s">
+        <v>188</v>
+      </c>
+      <c r="N158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>50</v>
+      </c>
+      <c r="B159" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" t="s">
+        <v>232</v>
+      </c>
+      <c r="D159">
+        <v>66</v>
+      </c>
+      <c r="J159" t="s">
+        <v>189</v>
+      </c>
+      <c r="K159" t="s">
+        <v>188</v>
+      </c>
+      <c r="M159" t="s">
+        <v>188</v>
+      </c>
+      <c r="N159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>29</v>
+      </c>
+      <c r="B160" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" t="s">
+        <v>232</v>
+      </c>
+      <c r="D160">
+        <v>1510</v>
+      </c>
+      <c r="I160" t="s">
+        <v>189</v>
+      </c>
+      <c r="K160" t="s">
+        <v>188</v>
+      </c>
+      <c r="M160" t="s">
+        <v>188</v>
+      </c>
+      <c r="N160" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>57</v>
+      </c>
+      <c r="B161" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" t="s">
+        <v>232</v>
+      </c>
+      <c r="D161" s="1">
+        <v>285</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="I161" t="s">
+        <v>189</v>
+      </c>
+      <c r="K161" t="s">
+        <v>188</v>
+      </c>
+      <c r="M161" t="s">
+        <v>188</v>
+      </c>
+      <c r="N161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>54</v>
+      </c>
+      <c r="B162" t="s">
+        <v>124</v>
+      </c>
+      <c r="C162" t="s">
+        <v>232</v>
+      </c>
+      <c r="D162" s="1">
+        <v>147</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="I162" t="s">
+        <v>188</v>
+      </c>
+      <c r="J162" t="s">
+        <v>189</v>
+      </c>
+      <c r="K162" t="s">
+        <v>188</v>
+      </c>
+      <c r="M162" t="s">
+        <v>188</v>
+      </c>
+      <c r="N162" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>54</v>
+      </c>
+      <c r="B163" t="s">
+        <v>123</v>
+      </c>
+      <c r="C163" t="s">
+        <v>232</v>
+      </c>
+      <c r="D163" s="1">
+        <v>112</v>
+      </c>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="I163" t="s">
+        <v>189</v>
+      </c>
+      <c r="J163" t="s">
+        <v>189</v>
+      </c>
+      <c r="K163" t="s">
+        <v>188</v>
+      </c>
+      <c r="M163" t="s">
+        <v>188</v>
+      </c>
+      <c r="N163" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>17</v>
+      </c>
+      <c r="B164" t="s">
+        <v>215</v>
+      </c>
+      <c r="C164" t="s">
+        <v>232</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="L164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>27</v>
+      </c>
+      <c r="B165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" t="s">
+        <v>232</v>
+      </c>
+      <c r="D165">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>187</v>
+      </c>
+      <c r="K165" t="s">
+        <v>187</v>
+      </c>
+      <c r="L165" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>26</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" t="s">
+        <v>232</v>
+      </c>
+      <c r="D166">
+        <v>19</v>
+      </c>
+      <c r="J166" t="s">
+        <v>187</v>
+      </c>
+      <c r="L166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>26</v>
+      </c>
+      <c r="B167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" t="s">
+        <v>232</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="K167" t="s">
+        <v>187</v>
+      </c>
+      <c r="L167" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>28</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" t="s">
+        <v>232</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="K168" t="s">
+        <v>187</v>
+      </c>
+      <c r="L168" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>28</v>
+      </c>
+      <c r="B169" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169" t="s">
+        <v>232</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>187</v>
+      </c>
+      <c r="L169" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>49</v>
+      </c>
+      <c r="B170" t="s">
+        <v>99</v>
+      </c>
+      <c r="C170" t="s">
+        <v>232</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>187</v>
+      </c>
+      <c r="K170" t="s">
+        <v>187</v>
+      </c>
+      <c r="L170" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>51</v>
+      </c>
+      <c r="B171" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" t="s">
+        <v>232</v>
+      </c>
+      <c r="D171">
+        <v>18</v>
+      </c>
+      <c r="J171" t="s">
+        <v>187</v>
+      </c>
+      <c r="L171" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>51</v>
+      </c>
+      <c r="B172" t="s">
+        <v>105</v>
+      </c>
+      <c r="C172" t="s">
+        <v>232</v>
+      </c>
+      <c r="D172">
+        <v>11</v>
+      </c>
+      <c r="K172" t="s">
+        <v>187</v>
+      </c>
+      <c r="L172" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>17</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>232</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="M173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>28</v>
+      </c>
+      <c r="B174" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174" t="s">
+        <v>232</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>188</v>
+      </c>
+      <c r="M174" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>27</v>
+      </c>
+      <c r="B175" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" t="s">
+        <v>232</v>
+      </c>
+      <c r="D175">
+        <v>7</v>
+      </c>
+      <c r="I175" t="s">
+        <v>188</v>
+      </c>
+      <c r="K175" t="s">
+        <v>188</v>
+      </c>
+      <c r="M175" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>26</v>
+      </c>
+      <c r="B176" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" t="s">
+        <v>232</v>
+      </c>
+      <c r="D176">
+        <v>35</v>
+      </c>
+      <c r="I176" t="s">
+        <v>188</v>
+      </c>
+      <c r="M176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>28</v>
+      </c>
+      <c r="B177" t="s">
+        <v>39</v>
+      </c>
+      <c r="C177" t="s">
+        <v>232</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>188</v>
+      </c>
+      <c r="M177" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>49</v>
+      </c>
+      <c r="B178" t="s">
+        <v>100</v>
+      </c>
+      <c r="C178" t="s">
+        <v>232</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>188</v>
+      </c>
+      <c r="K178" t="s">
+        <v>188</v>
+      </c>
+      <c r="M178" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>51</v>
+      </c>
+      <c r="B179" t="s">
+        <v>109</v>
+      </c>
+      <c r="C179" t="s">
+        <v>232</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>188</v>
+      </c>
+      <c r="M179" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>26</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D180">
+        <v>26</v>
+      </c>
+      <c r="K180" t="s">
+        <v>188</v>
+      </c>
+      <c r="M180" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>51</v>
+      </c>
+      <c r="B181" t="s">
+        <v>107</v>
+      </c>
+      <c r="C181" t="s">
+        <v>232</v>
+      </c>
+      <c r="D181">
+        <v>24</v>
+      </c>
+      <c r="K181" t="s">
+        <v>188</v>
+      </c>
+      <c r="M181" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>17</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>232</v>
+      </c>
+      <c r="D182">
+        <v>51</v>
+      </c>
+      <c r="N182" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>28</v>
+      </c>
+      <c r="B183" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183" t="s">
+        <v>232</v>
+      </c>
+      <c r="D183">
+        <v>13</v>
+      </c>
+      <c r="J183" t="s">
+        <v>189</v>
+      </c>
+      <c r="N183" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" t="s">
+        <v>232</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
+      </c>
+      <c r="I184" t="s">
+        <v>189</v>
+      </c>
+      <c r="N184" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>27</v>
+      </c>
+      <c r="B185" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" t="s">
+        <v>232</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="I185" t="s">
+        <v>189</v>
+      </c>
+      <c r="J185" t="s">
+        <v>189</v>
+      </c>
+      <c r="N185" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>49</v>
+      </c>
+      <c r="B186" t="s">
+        <v>101</v>
+      </c>
+      <c r="C186" t="s">
+        <v>232</v>
+      </c>
+      <c r="D186">
+        <v>19</v>
+      </c>
+      <c r="I186" t="s">
+        <v>189</v>
+      </c>
+      <c r="J186" t="s">
+        <v>189</v>
+      </c>
+      <c r="N186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>26</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" t="s">
+        <v>232</v>
+      </c>
+      <c r="D187">
+        <v>47</v>
+      </c>
+      <c r="I187" t="s">
+        <v>189</v>
+      </c>
+      <c r="N187" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>51</v>
+      </c>
+      <c r="B188" t="s">
+        <v>110</v>
+      </c>
+      <c r="C188" t="s">
+        <v>232</v>
+      </c>
+      <c r="D188">
+        <v>32</v>
+      </c>
+      <c r="I188" t="s">
+        <v>189</v>
+      </c>
+      <c r="N188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>26</v>
+      </c>
+      <c r="B189" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" t="s">
+        <v>232</v>
+      </c>
+      <c r="D189">
+        <v>59</v>
+      </c>
+      <c r="J189" t="s">
+        <v>189</v>
+      </c>
+      <c r="N189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>51</v>
+      </c>
+      <c r="B190" t="s">
+        <v>108</v>
+      </c>
+      <c r="C190" t="s">
+        <v>232</v>
+      </c>
+      <c r="D190">
+        <v>57</v>
+      </c>
+      <c r="J190" t="s">
+        <v>189</v>
+      </c>
+      <c r="N190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>16</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>232</v>
+      </c>
+      <c r="D191">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>25</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="s">
+        <v>232</v>
+      </c>
+      <c r="D192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>25</v>
+      </c>
+      <c r="B193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C193" t="s">
+        <v>232</v>
+      </c>
+      <c r="D193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>25</v>
+      </c>
+      <c r="B194" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" t="s">
+        <v>232</v>
+      </c>
+      <c r="D194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>47</v>
+      </c>
+      <c r="B195" t="s">
+        <v>97</v>
+      </c>
+      <c r="C195" t="s">
+        <v>232</v>
+      </c>
+      <c r="D195">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/GroupSpec_orthorhombic.xlsx
+++ b/data/GroupSpec_orthorhombic.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DWMoreau/MLI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D19931-45E2-0045-AC53-B74222CF905C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109C5C44-105B-9B4F-9E3B-8E949E792422}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="-20180" windowWidth="27340" windowHeight="17760" activeTab="2" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
+    <workbookView xWindow="840" yWindow="780" windowWidth="27340" windowHeight="17760" activeTab="3" xr2:uid="{7928E02C-29DC-574B-8667-D82DDE3DF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Groups V4" sheetId="3" r:id="rId2"/>
     <sheet name="Groups_V5" sheetId="4" r:id="rId3"/>
+    <sheet name="Groups_V6" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4340" uniqueCount="238">
   <si>
     <t>spacegroup number</t>
   </si>
@@ -6246,8 +6247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D154C47-0A69-1C46-8595-34C42B00C9A5}">
   <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A82" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A94" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11131,7 +11132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A6B385-4E1F-7448-99EC-C8317FA67C94}">
   <dimension ref="A1:N195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+    <sheetView topLeftCell="A132" workbookViewId="0">
       <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
@@ -15987,4 +15988,4866 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7DFD4A-1D9D-F74E-A554-21629E7853A9}">
+  <dimension ref="A1:N195"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:XFD195"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>SUM(D3:D6)</f>
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3">
+        <v>2370</v>
+      </c>
+      <c r="I3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4">
+        <v>414</v>
+      </c>
+      <c r="I4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" t="s">
+        <v>192</v>
+      </c>
+      <c r="L4" t="s">
+        <v>221</v>
+      </c>
+      <c r="M4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5">
+        <v>127</v>
+      </c>
+      <c r="I5" t="s">
+        <v>190</v>
+      </c>
+      <c r="J5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6">
+        <v>836</v>
+      </c>
+      <c r="I6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" t="s">
+        <v>192</v>
+      </c>
+      <c r="L6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>SUM(D9:D13)</f>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K9" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" t="s">
+        <v>188</v>
+      </c>
+      <c r="N9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" t="s">
+        <v>187</v>
+      </c>
+      <c r="M11" t="s">
+        <v>188</v>
+      </c>
+      <c r="N11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K12" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" t="s">
+        <v>187</v>
+      </c>
+      <c r="M12" t="s">
+        <v>188</v>
+      </c>
+      <c r="N12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13">
+        <v>176</v>
+      </c>
+      <c r="I13" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" t="s">
+        <v>188</v>
+      </c>
+      <c r="N13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f>SUM(D16:D41)</f>
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16">
+        <v>275</v>
+      </c>
+      <c r="I16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" t="s">
+        <v>192</v>
+      </c>
+      <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s">
+        <v>188</v>
+      </c>
+      <c r="N17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18">
+        <v>241</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s">
+        <v>188</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="s">
+        <v>188</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20">
+        <v>68</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="s">
+        <v>188</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21">
+        <v>486</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s">
+        <v>188</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="s">
+        <v>188</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23">
+        <v>115</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="s">
+        <v>188</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" t="s">
+        <v>188</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25">
+        <v>97</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="s">
+        <v>188</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s">
+        <v>188</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="s">
+        <v>188</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" t="s">
+        <v>188</v>
+      </c>
+      <c r="N28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29">
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s">
+        <v>187</v>
+      </c>
+      <c r="M29" t="s">
+        <v>188</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>191</v>
+      </c>
+      <c r="L30" t="s">
+        <v>187</v>
+      </c>
+      <c r="M30" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31">
+        <v>83</v>
+      </c>
+      <c r="J31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" t="s">
+        <v>187</v>
+      </c>
+      <c r="M31" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32">
+        <v>111</v>
+      </c>
+      <c r="J32" t="s">
+        <v>191</v>
+      </c>
+      <c r="L32" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" t="s">
+        <v>188</v>
+      </c>
+      <c r="N32" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33">
+        <v>118</v>
+      </c>
+      <c r="K33" t="s">
+        <v>192</v>
+      </c>
+      <c r="L33" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" t="s">
+        <v>188</v>
+      </c>
+      <c r="N33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34">
+        <v>44</v>
+      </c>
+      <c r="K34" t="s">
+        <v>192</v>
+      </c>
+      <c r="L34" t="s">
+        <v>187</v>
+      </c>
+      <c r="M34" t="s">
+        <v>188</v>
+      </c>
+      <c r="N34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>192</v>
+      </c>
+      <c r="L35" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36">
+        <v>130</v>
+      </c>
+      <c r="K36" t="s">
+        <v>192</v>
+      </c>
+      <c r="L36" t="s">
+        <v>187</v>
+      </c>
+      <c r="M36" t="s">
+        <v>188</v>
+      </c>
+      <c r="N36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s">
+        <v>187</v>
+      </c>
+      <c r="M37" t="s">
+        <v>188</v>
+      </c>
+      <c r="N37" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38">
+        <v>162</v>
+      </c>
+      <c r="I38" t="s">
+        <v>190</v>
+      </c>
+      <c r="J38" t="s">
+        <v>191</v>
+      </c>
+      <c r="L38" t="s">
+        <v>187</v>
+      </c>
+      <c r="M38" t="s">
+        <v>188</v>
+      </c>
+      <c r="N38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39">
+        <v>130</v>
+      </c>
+      <c r="I39" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" t="s">
+        <v>187</v>
+      </c>
+      <c r="M39" t="s">
+        <v>188</v>
+      </c>
+      <c r="N39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40">
+        <v>386</v>
+      </c>
+      <c r="J40" t="s">
+        <v>191</v>
+      </c>
+      <c r="K40" t="s">
+        <v>192</v>
+      </c>
+      <c r="L40" t="s">
+        <v>187</v>
+      </c>
+      <c r="M40" t="s">
+        <v>188</v>
+      </c>
+      <c r="N40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41">
+        <v>181</v>
+      </c>
+      <c r="J41" t="s">
+        <v>191</v>
+      </c>
+      <c r="K41" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" t="s">
+        <v>187</v>
+      </c>
+      <c r="M41" t="s">
+        <v>188</v>
+      </c>
+      <c r="N41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f>SUM(D44:D67)</f>
+        <v>9328</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:G43" si="0">SUM(E44:E67)</f>
+        <v>2963</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>3419</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44">
+        <v>123</v>
+      </c>
+      <c r="E44">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>21</v>
+      </c>
+      <c r="G44">
+        <v>87</v>
+      </c>
+      <c r="I44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J44" t="s">
+        <v>191</v>
+      </c>
+      <c r="L44" t="s">
+        <v>187</v>
+      </c>
+      <c r="M44" t="s">
+        <v>200</v>
+      </c>
+      <c r="N44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45">
+        <v>168</v>
+      </c>
+      <c r="E45">
+        <v>55</v>
+      </c>
+      <c r="F45">
+        <v>55</v>
+      </c>
+      <c r="G45">
+        <v>58</v>
+      </c>
+      <c r="I45" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L45" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" t="s">
+        <v>200</v>
+      </c>
+      <c r="N45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46">
+        <v>37</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" t="s">
+        <v>187</v>
+      </c>
+      <c r="L46" t="s">
+        <v>187</v>
+      </c>
+      <c r="M46" t="s">
+        <v>200</v>
+      </c>
+      <c r="N46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47">
+        <v>883</v>
+      </c>
+      <c r="E47">
+        <v>142</v>
+      </c>
+      <c r="F47">
+        <v>258</v>
+      </c>
+      <c r="G47">
+        <v>483</v>
+      </c>
+      <c r="I47" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" t="s">
+        <v>187</v>
+      </c>
+      <c r="L47" t="s">
+        <v>187</v>
+      </c>
+      <c r="M47" t="s">
+        <v>200</v>
+      </c>
+      <c r="N47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48">
+        <v>521</v>
+      </c>
+      <c r="E48">
+        <v>191</v>
+      </c>
+      <c r="F48">
+        <v>145</v>
+      </c>
+      <c r="G48">
+        <v>185</v>
+      </c>
+      <c r="I48" t="s">
+        <v>190</v>
+      </c>
+      <c r="J48" t="s">
+        <v>187</v>
+      </c>
+      <c r="L48" t="s">
+        <v>187</v>
+      </c>
+      <c r="M48" t="s">
+        <v>200</v>
+      </c>
+      <c r="N48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49">
+        <v>215</v>
+      </c>
+      <c r="E49">
+        <v>92</v>
+      </c>
+      <c r="F49">
+        <v>103</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>188</v>
+      </c>
+      <c r="J49" t="s">
+        <v>191</v>
+      </c>
+      <c r="L49" t="s">
+        <v>187</v>
+      </c>
+      <c r="M49" t="s">
+        <v>200</v>
+      </c>
+      <c r="N49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50">
+        <v>712</v>
+      </c>
+      <c r="E50">
+        <v>142</v>
+      </c>
+      <c r="F50">
+        <v>341</v>
+      </c>
+      <c r="G50">
+        <v>229</v>
+      </c>
+      <c r="I50" t="s">
+        <v>188</v>
+      </c>
+      <c r="J50" t="s">
+        <v>191</v>
+      </c>
+      <c r="L50" t="s">
+        <v>187</v>
+      </c>
+      <c r="M50" t="s">
+        <v>200</v>
+      </c>
+      <c r="N50" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51">
+        <v>1375</v>
+      </c>
+      <c r="E51">
+        <v>359</v>
+      </c>
+      <c r="F51">
+        <v>629</v>
+      </c>
+      <c r="G51">
+        <v>387</v>
+      </c>
+      <c r="I51" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" t="s">
+        <v>191</v>
+      </c>
+      <c r="L51" t="s">
+        <v>187</v>
+      </c>
+      <c r="M51" t="s">
+        <v>200</v>
+      </c>
+      <c r="N51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52">
+        <v>1745</v>
+      </c>
+      <c r="E52">
+        <v>971</v>
+      </c>
+      <c r="F52">
+        <v>527</v>
+      </c>
+      <c r="G52">
+        <v>247</v>
+      </c>
+      <c r="I52" t="s">
+        <v>188</v>
+      </c>
+      <c r="J52" t="s">
+        <v>187</v>
+      </c>
+      <c r="L52" t="s">
+        <v>187</v>
+      </c>
+      <c r="M52" t="s">
+        <v>200</v>
+      </c>
+      <c r="N52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53">
+        <v>369</v>
+      </c>
+      <c r="E53">
+        <v>76</v>
+      </c>
+      <c r="F53">
+        <v>121</v>
+      </c>
+      <c r="G53">
+        <v>172</v>
+      </c>
+      <c r="I53" t="s">
+        <v>190</v>
+      </c>
+      <c r="J53" t="s">
+        <v>191</v>
+      </c>
+      <c r="K53" t="s">
+        <v>192</v>
+      </c>
+      <c r="L53" t="s">
+        <v>187</v>
+      </c>
+      <c r="M53" t="s">
+        <v>200</v>
+      </c>
+      <c r="N53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54">
+        <v>47</v>
+      </c>
+      <c r="E54">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>190</v>
+      </c>
+      <c r="J54" t="s">
+        <v>191</v>
+      </c>
+      <c r="K54" t="s">
+        <v>192</v>
+      </c>
+      <c r="L54" t="s">
+        <v>187</v>
+      </c>
+      <c r="M54" t="s">
+        <v>200</v>
+      </c>
+      <c r="N54" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D55">
+        <v>277</v>
+      </c>
+      <c r="E55">
+        <v>115</v>
+      </c>
+      <c r="F55">
+        <v>66</v>
+      </c>
+      <c r="G55">
+        <v>96</v>
+      </c>
+      <c r="I55" t="s">
+        <v>190</v>
+      </c>
+      <c r="J55" t="s">
+        <v>187</v>
+      </c>
+      <c r="K55" t="s">
+        <v>192</v>
+      </c>
+      <c r="L55" t="s">
+        <v>187</v>
+      </c>
+      <c r="M55" t="s">
+        <v>200</v>
+      </c>
+      <c r="N55" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>228</v>
+      </c>
+      <c r="D56">
+        <v>789</v>
+      </c>
+      <c r="E56">
+        <v>284</v>
+      </c>
+      <c r="F56">
+        <v>363</v>
+      </c>
+      <c r="G56">
+        <v>142</v>
+      </c>
+      <c r="I56" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" t="s">
+        <v>191</v>
+      </c>
+      <c r="K56" t="s">
+        <v>192</v>
+      </c>
+      <c r="L56" t="s">
+        <v>187</v>
+      </c>
+      <c r="M56" t="s">
+        <v>200</v>
+      </c>
+      <c r="N56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57">
+        <v>717</v>
+      </c>
+      <c r="E57">
+        <v>211</v>
+      </c>
+      <c r="F57">
+        <v>282</v>
+      </c>
+      <c r="G57">
+        <v>224</v>
+      </c>
+      <c r="I57" t="s">
+        <v>190</v>
+      </c>
+      <c r="J57" t="s">
+        <v>187</v>
+      </c>
+      <c r="K57" t="s">
+        <v>192</v>
+      </c>
+      <c r="L57" t="s">
+        <v>187</v>
+      </c>
+      <c r="M57" t="s">
+        <v>200</v>
+      </c>
+      <c r="N57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>64</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58">
+        <v>604</v>
+      </c>
+      <c r="E58">
+        <v>210</v>
+      </c>
+      <c r="F58">
+        <v>267</v>
+      </c>
+      <c r="G58">
+        <v>127</v>
+      </c>
+      <c r="I58" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" t="s">
+        <v>191</v>
+      </c>
+      <c r="K58" t="s">
+        <v>192</v>
+      </c>
+      <c r="L58" t="s">
+        <v>187</v>
+      </c>
+      <c r="M58" t="s">
+        <v>200</v>
+      </c>
+      <c r="N58" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59">
+        <v>76</v>
+      </c>
+      <c r="E59">
+        <v>13</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>53</v>
+      </c>
+      <c r="I59" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59" t="s">
+        <v>187</v>
+      </c>
+      <c r="L59" t="s">
+        <v>187</v>
+      </c>
+      <c r="M59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60">
+        <v>51</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="G60">
+        <v>35</v>
+      </c>
+      <c r="I60" t="s">
+        <v>188</v>
+      </c>
+      <c r="J60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L60" t="s">
+        <v>187</v>
+      </c>
+      <c r="M60" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>228</v>
+      </c>
+      <c r="D61">
+        <v>46</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s">
+        <v>188</v>
+      </c>
+      <c r="J61" t="s">
+        <v>187</v>
+      </c>
+      <c r="L61" t="s">
+        <v>187</v>
+      </c>
+      <c r="M61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>188</v>
+      </c>
+      <c r="J62" t="s">
+        <v>187</v>
+      </c>
+      <c r="L62" t="s">
+        <v>187</v>
+      </c>
+      <c r="M62" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63">
+        <v>353</v>
+      </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>108</v>
+      </c>
+      <c r="G63">
+        <v>227</v>
+      </c>
+      <c r="I63" t="s">
+        <v>188</v>
+      </c>
+      <c r="J63" t="s">
+        <v>187</v>
+      </c>
+      <c r="L63" t="s">
+        <v>187</v>
+      </c>
+      <c r="M63" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>39</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64">
+        <v>61</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>26</v>
+      </c>
+      <c r="G64">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>188</v>
+      </c>
+      <c r="J64" t="s">
+        <v>187</v>
+      </c>
+      <c r="K64" t="s">
+        <v>192</v>
+      </c>
+      <c r="L64" t="s">
+        <v>187</v>
+      </c>
+      <c r="M64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D65">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>8</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>188</v>
+      </c>
+      <c r="J65" t="s">
+        <v>187</v>
+      </c>
+      <c r="K65" t="s">
+        <v>192</v>
+      </c>
+      <c r="L65" t="s">
+        <v>187</v>
+      </c>
+      <c r="M65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66">
+        <v>98</v>
+      </c>
+      <c r="E66">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <v>45</v>
+      </c>
+      <c r="G66">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s">
+        <v>188</v>
+      </c>
+      <c r="J66" t="s">
+        <v>187</v>
+      </c>
+      <c r="K66" t="s">
+        <v>192</v>
+      </c>
+      <c r="L66" t="s">
+        <v>187</v>
+      </c>
+      <c r="M66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>12</v>
+      </c>
+      <c r="I67" t="s">
+        <v>188</v>
+      </c>
+      <c r="J67" t="s">
+        <v>187</v>
+      </c>
+      <c r="K67" t="s">
+        <v>192</v>
+      </c>
+      <c r="L67" t="s">
+        <v>187</v>
+      </c>
+      <c r="M67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <f>SUM(D70:D95)</f>
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70">
+        <v>24328</v>
+      </c>
+      <c r="L70" t="s">
+        <v>187</v>
+      </c>
+      <c r="M70" t="s">
+        <v>188</v>
+      </c>
+      <c r="N70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>187</v>
+      </c>
+      <c r="M71" t="s">
+        <v>188</v>
+      </c>
+      <c r="N71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72">
+        <v>417</v>
+      </c>
+      <c r="L72" t="s">
+        <v>187</v>
+      </c>
+      <c r="M72" t="s">
+        <v>188</v>
+      </c>
+      <c r="N72" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" t="s">
+        <v>229</v>
+      </c>
+      <c r="D73">
+        <v>43</v>
+      </c>
+      <c r="L73" t="s">
+        <v>187</v>
+      </c>
+      <c r="M73" t="s">
+        <v>188</v>
+      </c>
+      <c r="N73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74">
+        <v>248</v>
+      </c>
+      <c r="L74" t="s">
+        <v>187</v>
+      </c>
+      <c r="M74" t="s">
+        <v>188</v>
+      </c>
+      <c r="N74" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75">
+        <v>39</v>
+      </c>
+      <c r="L75" t="s">
+        <v>187</v>
+      </c>
+      <c r="M75" t="s">
+        <v>188</v>
+      </c>
+      <c r="N75" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>58</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76">
+        <v>252</v>
+      </c>
+      <c r="L76" t="s">
+        <v>187</v>
+      </c>
+      <c r="M76" t="s">
+        <v>188</v>
+      </c>
+      <c r="N76" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D77">
+        <v>71</v>
+      </c>
+      <c r="L77" t="s">
+        <v>187</v>
+      </c>
+      <c r="M77" t="s">
+        <v>188</v>
+      </c>
+      <c r="N77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" t="s">
+        <v>229</v>
+      </c>
+      <c r="D78">
+        <v>1584</v>
+      </c>
+      <c r="I78" t="s">
+        <v>188</v>
+      </c>
+      <c r="L78" t="s">
+        <v>187</v>
+      </c>
+      <c r="M78" t="s">
+        <v>188</v>
+      </c>
+      <c r="N78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79">
+        <v>2048</v>
+      </c>
+      <c r="I79" t="s">
+        <v>188</v>
+      </c>
+      <c r="L79" t="s">
+        <v>187</v>
+      </c>
+      <c r="M79" t="s">
+        <v>188</v>
+      </c>
+      <c r="N79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>52</v>
+      </c>
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80">
+        <v>234</v>
+      </c>
+      <c r="I80" t="s">
+        <v>188</v>
+      </c>
+      <c r="L80" t="s">
+        <v>187</v>
+      </c>
+      <c r="M80" t="s">
+        <v>188</v>
+      </c>
+      <c r="N80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>52</v>
+      </c>
+      <c r="B81" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81">
+        <v>217</v>
+      </c>
+      <c r="I81" t="s">
+        <v>189</v>
+      </c>
+      <c r="L81" t="s">
+        <v>187</v>
+      </c>
+      <c r="M81" t="s">
+        <v>188</v>
+      </c>
+      <c r="N81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>33</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82">
+        <v>2479</v>
+      </c>
+      <c r="I82" t="s">
+        <v>189</v>
+      </c>
+      <c r="L82" t="s">
+        <v>187</v>
+      </c>
+      <c r="M82" t="s">
+        <v>188</v>
+      </c>
+      <c r="N82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>62</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83">
+        <v>2280</v>
+      </c>
+      <c r="I83" t="s">
+        <v>189</v>
+      </c>
+      <c r="L83" t="s">
+        <v>187</v>
+      </c>
+      <c r="M83" t="s">
+        <v>188</v>
+      </c>
+      <c r="N83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>62</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84">
+        <v>1768</v>
+      </c>
+      <c r="J84" t="s">
+        <v>189</v>
+      </c>
+      <c r="L84" t="s">
+        <v>187</v>
+      </c>
+      <c r="M84" t="s">
+        <v>188</v>
+      </c>
+      <c r="N84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>52</v>
+      </c>
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85">
+        <v>91</v>
+      </c>
+      <c r="J85" t="s">
+        <v>189</v>
+      </c>
+      <c r="L85" t="s">
+        <v>187</v>
+      </c>
+      <c r="M85" t="s">
+        <v>188</v>
+      </c>
+      <c r="N85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D86">
+        <v>1973</v>
+      </c>
+      <c r="J86" t="s">
+        <v>189</v>
+      </c>
+      <c r="L86" t="s">
+        <v>187</v>
+      </c>
+      <c r="M86" t="s">
+        <v>188</v>
+      </c>
+      <c r="N86" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87">
+        <v>549</v>
+      </c>
+      <c r="J87" t="s">
+        <v>187</v>
+      </c>
+      <c r="L87" t="s">
+        <v>187</v>
+      </c>
+      <c r="M87" t="s">
+        <v>188</v>
+      </c>
+      <c r="N87" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>62</v>
+      </c>
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88">
+        <v>1161</v>
+      </c>
+      <c r="J88" t="s">
+        <v>187</v>
+      </c>
+      <c r="L88" t="s">
+        <v>187</v>
+      </c>
+      <c r="M88" t="s">
+        <v>188</v>
+      </c>
+      <c r="N88" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>52</v>
+      </c>
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89">
+        <v>179</v>
+      </c>
+      <c r="J89" t="s">
+        <v>187</v>
+      </c>
+      <c r="L89" t="s">
+        <v>187</v>
+      </c>
+      <c r="M89" t="s">
+        <v>188</v>
+      </c>
+      <c r="N89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90">
+        <v>654</v>
+      </c>
+      <c r="K90" t="s">
+        <v>187</v>
+      </c>
+      <c r="L90" t="s">
+        <v>187</v>
+      </c>
+      <c r="M90" t="s">
+        <v>188</v>
+      </c>
+      <c r="N90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91">
+        <v>999</v>
+      </c>
+      <c r="K91" t="s">
+        <v>187</v>
+      </c>
+      <c r="L91" t="s">
+        <v>187</v>
+      </c>
+      <c r="M91" t="s">
+        <v>188</v>
+      </c>
+      <c r="N91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92">
+        <v>111</v>
+      </c>
+      <c r="K92" t="s">
+        <v>187</v>
+      </c>
+      <c r="L92" t="s">
+        <v>187</v>
+      </c>
+      <c r="M92" t="s">
+        <v>188</v>
+      </c>
+      <c r="N92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>52</v>
+      </c>
+      <c r="B93" t="s">
+        <v>113</v>
+      </c>
+      <c r="C93" t="s">
+        <v>229</v>
+      </c>
+      <c r="D93">
+        <v>68</v>
+      </c>
+      <c r="K93" t="s">
+        <v>188</v>
+      </c>
+      <c r="L93" t="s">
+        <v>187</v>
+      </c>
+      <c r="M93" t="s">
+        <v>188</v>
+      </c>
+      <c r="N93" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94">
+        <v>1559</v>
+      </c>
+      <c r="K94" t="s">
+        <v>188</v>
+      </c>
+      <c r="L94" t="s">
+        <v>187</v>
+      </c>
+      <c r="M94" t="s">
+        <v>188</v>
+      </c>
+      <c r="N94" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>62</v>
+      </c>
+      <c r="B95" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95">
+        <v>1836</v>
+      </c>
+      <c r="K95" t="s">
+        <v>188</v>
+      </c>
+      <c r="L95" t="s">
+        <v>187</v>
+      </c>
+      <c r="M95" t="s">
+        <v>188</v>
+      </c>
+      <c r="N95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <f>SUM(D98:D106)</f>
+        <v>8581</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>60</v>
+      </c>
+      <c r="B98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" t="s">
+        <v>230</v>
+      </c>
+      <c r="D98">
+        <v>1430</v>
+      </c>
+      <c r="I98" t="s">
+        <v>189</v>
+      </c>
+      <c r="J98" t="s">
+        <v>187</v>
+      </c>
+      <c r="L98" t="s">
+        <v>187</v>
+      </c>
+      <c r="M98" t="s">
+        <v>188</v>
+      </c>
+      <c r="N98" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>56</v>
+      </c>
+      <c r="B99" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" t="s">
+        <v>230</v>
+      </c>
+      <c r="D99">
+        <v>697</v>
+      </c>
+      <c r="I99" t="s">
+        <v>189</v>
+      </c>
+      <c r="J99" t="s">
+        <v>189</v>
+      </c>
+      <c r="L99" t="s">
+        <v>187</v>
+      </c>
+      <c r="M99" t="s">
+        <v>188</v>
+      </c>
+      <c r="N99" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>60</v>
+      </c>
+      <c r="B100" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100">
+        <v>988</v>
+      </c>
+      <c r="I100" t="s">
+        <v>188</v>
+      </c>
+      <c r="J100" t="s">
+        <v>189</v>
+      </c>
+      <c r="L100" t="s">
+        <v>187</v>
+      </c>
+      <c r="M100" t="s">
+        <v>188</v>
+      </c>
+      <c r="N100" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>60</v>
+      </c>
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" t="s">
+        <v>230</v>
+      </c>
+      <c r="D101">
+        <v>1540</v>
+      </c>
+      <c r="I101" t="s">
+        <v>188</v>
+      </c>
+      <c r="K101" t="s">
+        <v>187</v>
+      </c>
+      <c r="L101" t="s">
+        <v>187</v>
+      </c>
+      <c r="M101" t="s">
+        <v>188</v>
+      </c>
+      <c r="N101" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" t="s">
+        <v>230</v>
+      </c>
+      <c r="D102">
+        <v>821</v>
+      </c>
+      <c r="I102" t="s">
+        <v>188</v>
+      </c>
+      <c r="K102" t="s">
+        <v>188</v>
+      </c>
+      <c r="L102" t="s">
+        <v>187</v>
+      </c>
+      <c r="M102" t="s">
+        <v>188</v>
+      </c>
+      <c r="N102" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>60</v>
+      </c>
+      <c r="B103" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103">
+        <v>764</v>
+      </c>
+      <c r="I103" t="s">
+        <v>189</v>
+      </c>
+      <c r="K103" t="s">
+        <v>188</v>
+      </c>
+      <c r="L103" t="s">
+        <v>187</v>
+      </c>
+      <c r="M103" t="s">
+        <v>188</v>
+      </c>
+      <c r="N103" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104">
+        <v>990</v>
+      </c>
+      <c r="J104" t="s">
+        <v>187</v>
+      </c>
+      <c r="K104" t="s">
+        <v>187</v>
+      </c>
+      <c r="L104" t="s">
+        <v>187</v>
+      </c>
+      <c r="M104" t="s">
+        <v>188</v>
+      </c>
+      <c r="N104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>60</v>
+      </c>
+      <c r="B105" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105">
+        <v>823</v>
+      </c>
+      <c r="J105" t="s">
+        <v>187</v>
+      </c>
+      <c r="K105" t="s">
+        <v>188</v>
+      </c>
+      <c r="L105" t="s">
+        <v>187</v>
+      </c>
+      <c r="M105" t="s">
+        <v>188</v>
+      </c>
+      <c r="N105" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>60</v>
+      </c>
+      <c r="B106" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106">
+        <v>528</v>
+      </c>
+      <c r="J106" t="s">
+        <v>189</v>
+      </c>
+      <c r="K106" t="s">
+        <v>187</v>
+      </c>
+      <c r="L106" t="s">
+        <v>187</v>
+      </c>
+      <c r="M106" t="s">
+        <v>188</v>
+      </c>
+      <c r="N106" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>61</v>
+      </c>
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" t="s">
+        <v>230</v>
+      </c>
+      <c r="D107">
+        <v>11343</v>
+      </c>
+      <c r="I107" t="s">
+        <v>188</v>
+      </c>
+      <c r="J107" t="s">
+        <v>189</v>
+      </c>
+      <c r="K107" t="s">
+        <v>187</v>
+      </c>
+      <c r="L107" t="s">
+        <v>187</v>
+      </c>
+      <c r="M107" t="s">
+        <v>188</v>
+      </c>
+      <c r="N107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>61</v>
+      </c>
+      <c r="B108" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" t="s">
+        <v>230</v>
+      </c>
+      <c r="D108">
+        <v>10035</v>
+      </c>
+      <c r="I108" t="s">
+        <v>189</v>
+      </c>
+      <c r="J108" t="s">
+        <v>187</v>
+      </c>
+      <c r="K108" t="s">
+        <v>188</v>
+      </c>
+      <c r="L108" t="s">
+        <v>187</v>
+      </c>
+      <c r="M108" t="s">
+        <v>188</v>
+      </c>
+      <c r="N108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <f>SUM(D111:D161)</f>
+        <v>11132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>18</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D111">
+        <v>151</v>
+      </c>
+      <c r="L111" t="s">
+        <v>187</v>
+      </c>
+      <c r="M111" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>31</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" t="s">
+        <v>231</v>
+      </c>
+      <c r="D112">
+        <v>39</v>
+      </c>
+      <c r="L112" t="s">
+        <v>187</v>
+      </c>
+      <c r="M112" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>59</v>
+      </c>
+      <c r="B113" t="s">
+        <v>146</v>
+      </c>
+      <c r="C113" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113">
+        <v>81</v>
+      </c>
+      <c r="L113" t="s">
+        <v>187</v>
+      </c>
+      <c r="M113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>31</v>
+      </c>
+      <c r="B114" t="s">
+        <v>58</v>
+      </c>
+      <c r="C114" t="s">
+        <v>231</v>
+      </c>
+      <c r="D114">
+        <v>62</v>
+      </c>
+      <c r="L114" t="s">
+        <v>187</v>
+      </c>
+      <c r="M114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>53</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" t="s">
+        <v>231</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="I115" t="s">
+        <v>188</v>
+      </c>
+      <c r="L115" t="s">
+        <v>187</v>
+      </c>
+      <c r="M115" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>30</v>
+      </c>
+      <c r="B116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" t="s">
+        <v>231</v>
+      </c>
+      <c r="D116">
+        <v>12</v>
+      </c>
+      <c r="I116" t="s">
+        <v>188</v>
+      </c>
+      <c r="L116" t="s">
+        <v>187</v>
+      </c>
+      <c r="M116" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>53</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" t="s">
+        <v>231</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="J117" t="s">
+        <v>187</v>
+      </c>
+      <c r="L117" t="s">
+        <v>187</v>
+      </c>
+      <c r="M117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>30</v>
+      </c>
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" t="s">
+        <v>231</v>
+      </c>
+      <c r="D118">
+        <v>10</v>
+      </c>
+      <c r="J118" t="s">
+        <v>187</v>
+      </c>
+      <c r="L118" t="s">
+        <v>187</v>
+      </c>
+      <c r="M118" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>32</v>
+      </c>
+      <c r="B119" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119" t="s">
+        <v>231</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="I119" t="s">
+        <v>188</v>
+      </c>
+      <c r="J119" t="s">
+        <v>187</v>
+      </c>
+      <c r="L119" t="s">
+        <v>187</v>
+      </c>
+      <c r="M119" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>55</v>
+      </c>
+      <c r="B120" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" t="s">
+        <v>231</v>
+      </c>
+      <c r="D120">
+        <v>49</v>
+      </c>
+      <c r="I120" t="s">
+        <v>188</v>
+      </c>
+      <c r="J120" t="s">
+        <v>187</v>
+      </c>
+      <c r="L120" t="s">
+        <v>187</v>
+      </c>
+      <c r="M120" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>50</v>
+      </c>
+      <c r="B121" t="s">
+        <v>104</v>
+      </c>
+      <c r="C121" t="s">
+        <v>231</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+      <c r="I121" t="s">
+        <v>188</v>
+      </c>
+      <c r="J121" t="s">
+        <v>187</v>
+      </c>
+      <c r="L121" t="s">
+        <v>187</v>
+      </c>
+      <c r="M121" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>29</v>
+      </c>
+      <c r="B122" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" t="s">
+        <v>231</v>
+      </c>
+      <c r="D122">
+        <v>320</v>
+      </c>
+      <c r="I122" t="s">
+        <v>188</v>
+      </c>
+      <c r="K122" t="s">
+        <v>187</v>
+      </c>
+      <c r="L122" t="s">
+        <v>187</v>
+      </c>
+      <c r="M122" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>57</v>
+      </c>
+      <c r="B123" t="s">
+        <v>138</v>
+      </c>
+      <c r="C123" t="s">
+        <v>231</v>
+      </c>
+      <c r="D123">
+        <v>22</v>
+      </c>
+      <c r="I123" t="s">
+        <v>188</v>
+      </c>
+      <c r="K123" t="s">
+        <v>187</v>
+      </c>
+      <c r="L123" t="s">
+        <v>187</v>
+      </c>
+      <c r="M123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>29</v>
+      </c>
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" t="s">
+        <v>231</v>
+      </c>
+      <c r="D124">
+        <v>278</v>
+      </c>
+      <c r="J124" t="s">
+        <v>187</v>
+      </c>
+      <c r="K124" t="s">
+        <v>188</v>
+      </c>
+      <c r="L124" t="s">
+        <v>187</v>
+      </c>
+      <c r="M124" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>57</v>
+      </c>
+      <c r="B125" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" t="s">
+        <v>231</v>
+      </c>
+      <c r="D125">
+        <v>27</v>
+      </c>
+      <c r="J125" t="s">
+        <v>187</v>
+      </c>
+      <c r="K125" t="s">
+        <v>188</v>
+      </c>
+      <c r="L125" t="s">
+        <v>187</v>
+      </c>
+      <c r="M125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>54</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>231</v>
+      </c>
+      <c r="D126">
+        <v>18</v>
+      </c>
+      <c r="I126" t="s">
+        <v>188</v>
+      </c>
+      <c r="J126" t="s">
+        <v>187</v>
+      </c>
+      <c r="K126" t="s">
+        <v>187</v>
+      </c>
+      <c r="L126" t="s">
+        <v>187</v>
+      </c>
+      <c r="M126" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>54</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>231</v>
+      </c>
+      <c r="D127">
+        <v>19</v>
+      </c>
+      <c r="I127" t="s">
+        <v>188</v>
+      </c>
+      <c r="J127" t="s">
+        <v>187</v>
+      </c>
+      <c r="K127" t="s">
+        <v>188</v>
+      </c>
+      <c r="L127" t="s">
+        <v>187</v>
+      </c>
+      <c r="M127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>59</v>
+      </c>
+      <c r="B128" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" t="s">
+        <v>231</v>
+      </c>
+      <c r="D128">
+        <v>149</v>
+      </c>
+      <c r="L128" t="s">
+        <v>187</v>
+      </c>
+      <c r="N128" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>231</v>
+      </c>
+      <c r="D129">
+        <v>569</v>
+      </c>
+      <c r="L129" t="s">
+        <v>187</v>
+      </c>
+      <c r="N129" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>31</v>
+      </c>
+      <c r="B130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" t="s">
+        <v>231</v>
+      </c>
+      <c r="D130">
+        <v>222</v>
+      </c>
+      <c r="L130" t="s">
+        <v>187</v>
+      </c>
+      <c r="N130" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>31</v>
+      </c>
+      <c r="B131" t="s">
+        <v>55</v>
+      </c>
+      <c r="C131" t="s">
+        <v>231</v>
+      </c>
+      <c r="D131">
+        <v>54</v>
+      </c>
+      <c r="L131" t="s">
+        <v>187</v>
+      </c>
+      <c r="N131" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>30</v>
+      </c>
+      <c r="B132" t="s">
+        <v>51</v>
+      </c>
+      <c r="C132" t="s">
+        <v>231</v>
+      </c>
+      <c r="D132">
+        <v>43</v>
+      </c>
+      <c r="K132" t="s">
+        <v>187</v>
+      </c>
+      <c r="L132" t="s">
+        <v>187</v>
+      </c>
+      <c r="N132" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>53</v>
+      </c>
+      <c r="B133" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133" t="s">
+        <v>231</v>
+      </c>
+      <c r="D133">
+        <v>30</v>
+      </c>
+      <c r="K133" t="s">
+        <v>187</v>
+      </c>
+      <c r="L133" t="s">
+        <v>187</v>
+      </c>
+      <c r="N133" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" t="s">
+        <v>231</v>
+      </c>
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="I134" t="s">
+        <v>189</v>
+      </c>
+      <c r="L134" t="s">
+        <v>187</v>
+      </c>
+      <c r="N134" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>53</v>
+      </c>
+      <c r="B135" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" t="s">
+        <v>231</v>
+      </c>
+      <c r="D135">
+        <v>11</v>
+      </c>
+      <c r="I135" t="s">
+        <v>189</v>
+      </c>
+      <c r="L135" t="s">
+        <v>187</v>
+      </c>
+      <c r="N135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>32</v>
+      </c>
+      <c r="B136" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" t="s">
+        <v>231</v>
+      </c>
+      <c r="D136">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>189</v>
+      </c>
+      <c r="K136" t="s">
+        <v>187</v>
+      </c>
+      <c r="L136" t="s">
+        <v>187</v>
+      </c>
+      <c r="N136" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>29</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" t="s">
+        <v>231</v>
+      </c>
+      <c r="D137">
+        <v>418</v>
+      </c>
+      <c r="I137" t="s">
+        <v>189</v>
+      </c>
+      <c r="K137" t="s">
+        <v>187</v>
+      </c>
+      <c r="L137" t="s">
+        <v>187</v>
+      </c>
+      <c r="N137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>57</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138">
+        <v>114</v>
+      </c>
+      <c r="I138" t="s">
+        <v>189</v>
+      </c>
+      <c r="K138" t="s">
+        <v>187</v>
+      </c>
+      <c r="L138" t="s">
+        <v>187</v>
+      </c>
+      <c r="N138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>55</v>
+      </c>
+      <c r="B139" t="s">
+        <v>130</v>
+      </c>
+      <c r="C139" t="s">
+        <v>231</v>
+      </c>
+      <c r="D139">
+        <v>74</v>
+      </c>
+      <c r="I139" t="s">
+        <v>189</v>
+      </c>
+      <c r="K139" t="s">
+        <v>187</v>
+      </c>
+      <c r="L139" t="s">
+        <v>187</v>
+      </c>
+      <c r="N139" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>50</v>
+      </c>
+      <c r="B140" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" t="s">
+        <v>231</v>
+      </c>
+      <c r="D140">
+        <v>28</v>
+      </c>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+      <c r="K140" t="s">
+        <v>187</v>
+      </c>
+      <c r="L140" t="s">
+        <v>187</v>
+      </c>
+      <c r="N140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>29</v>
+      </c>
+      <c r="B141" t="s">
+        <v>43</v>
+      </c>
+      <c r="C141" t="s">
+        <v>231</v>
+      </c>
+      <c r="D141">
+        <v>470</v>
+      </c>
+      <c r="J141" t="s">
+        <v>189</v>
+      </c>
+      <c r="K141" t="s">
+        <v>187</v>
+      </c>
+      <c r="L141" t="s">
+        <v>187</v>
+      </c>
+      <c r="N141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>57</v>
+      </c>
+      <c r="B142" t="s">
+        <v>137</v>
+      </c>
+      <c r="C142" t="s">
+        <v>231</v>
+      </c>
+      <c r="D142">
+        <v>90</v>
+      </c>
+      <c r="J142" t="s">
+        <v>189</v>
+      </c>
+      <c r="K142" t="s">
+        <v>187</v>
+      </c>
+      <c r="L142" t="s">
+        <v>187</v>
+      </c>
+      <c r="N142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>54</v>
+      </c>
+      <c r="B143" t="s">
+        <v>125</v>
+      </c>
+      <c r="C143" t="s">
+        <v>231</v>
+      </c>
+      <c r="D143">
+        <v>34</v>
+      </c>
+      <c r="I143" t="s">
+        <v>189</v>
+      </c>
+      <c r="J143" t="s">
+        <v>189</v>
+      </c>
+      <c r="K143" t="s">
+        <v>187</v>
+      </c>
+      <c r="L143" t="s">
+        <v>187</v>
+      </c>
+      <c r="N143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>54</v>
+      </c>
+      <c r="B144" t="s">
+        <v>127</v>
+      </c>
+      <c r="C144" t="s">
+        <v>231</v>
+      </c>
+      <c r="D144">
+        <v>59</v>
+      </c>
+      <c r="I144" t="s">
+        <v>189</v>
+      </c>
+      <c r="J144" t="s">
+        <v>187</v>
+      </c>
+      <c r="K144" t="s">
+        <v>187</v>
+      </c>
+      <c r="L144" t="s">
+        <v>187</v>
+      </c>
+      <c r="N144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>18</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>231</v>
+      </c>
+      <c r="D145">
+        <v>1962</v>
+      </c>
+      <c r="M145" t="s">
+        <v>188</v>
+      </c>
+      <c r="N145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>31</v>
+      </c>
+      <c r="B146" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" t="s">
+        <v>231</v>
+      </c>
+      <c r="D146">
+        <v>191</v>
+      </c>
+      <c r="M146" t="s">
+        <v>188</v>
+      </c>
+      <c r="N146" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>31</v>
+      </c>
+      <c r="B147" t="s">
+        <v>53</v>
+      </c>
+      <c r="C147" t="s">
+        <v>231</v>
+      </c>
+      <c r="D147">
+        <v>97</v>
+      </c>
+      <c r="M147" t="s">
+        <v>188</v>
+      </c>
+      <c r="N147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>59</v>
+      </c>
+      <c r="B148" t="s">
+        <v>144</v>
+      </c>
+      <c r="C148" t="s">
+        <v>231</v>
+      </c>
+      <c r="D148" s="1">
+        <v>255</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="M148" t="s">
+        <v>188</v>
+      </c>
+      <c r="N148" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>30</v>
+      </c>
+      <c r="B149" t="s">
+        <v>47</v>
+      </c>
+      <c r="C149" t="s">
+        <v>231</v>
+      </c>
+      <c r="D149">
+        <v>9</v>
+      </c>
+      <c r="J149" t="s">
+        <v>189</v>
+      </c>
+      <c r="M149" t="s">
+        <v>188</v>
+      </c>
+      <c r="N149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>53</v>
+      </c>
+      <c r="B150" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" t="s">
+        <v>231</v>
+      </c>
+      <c r="D150">
+        <v>55</v>
+      </c>
+      <c r="J150" t="s">
+        <v>189</v>
+      </c>
+      <c r="M150" t="s">
+        <v>188</v>
+      </c>
+      <c r="N150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>53</v>
+      </c>
+      <c r="B151" t="s">
+        <v>118</v>
+      </c>
+      <c r="C151" t="s">
+        <v>231</v>
+      </c>
+      <c r="D151">
+        <v>53</v>
+      </c>
+      <c r="K151" t="s">
+        <v>188</v>
+      </c>
+      <c r="M151" t="s">
+        <v>188</v>
+      </c>
+      <c r="N151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>30</v>
+      </c>
+      <c r="B152" t="s">
+        <v>48</v>
+      </c>
+      <c r="C152" t="s">
+        <v>231</v>
+      </c>
+      <c r="D152">
+        <v>32</v>
+      </c>
+      <c r="K152" t="s">
+        <v>188</v>
+      </c>
+      <c r="M152" t="s">
+        <v>188</v>
+      </c>
+      <c r="N152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>29</v>
+      </c>
+      <c r="B153" t="s">
+        <v>41</v>
+      </c>
+      <c r="C153" t="s">
+        <v>231</v>
+      </c>
+      <c r="D153">
+        <v>1800</v>
+      </c>
+      <c r="I153" t="s">
+        <v>188</v>
+      </c>
+      <c r="J153" t="s">
+        <v>189</v>
+      </c>
+      <c r="M153" t="s">
+        <v>188</v>
+      </c>
+      <c r="N153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>57</v>
+      </c>
+      <c r="B154" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" t="s">
+        <v>231</v>
+      </c>
+      <c r="D154" s="1">
+        <v>412</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="I154" t="s">
+        <v>188</v>
+      </c>
+      <c r="J154" t="s">
+        <v>189</v>
+      </c>
+      <c r="M154" t="s">
+        <v>188</v>
+      </c>
+      <c r="N154" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>55</v>
+      </c>
+      <c r="B155" t="s">
+        <v>129</v>
+      </c>
+      <c r="C155" t="s">
+        <v>231</v>
+      </c>
+      <c r="D155" s="1">
+        <v>506</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="J155" t="s">
+        <v>189</v>
+      </c>
+      <c r="K155" t="s">
+        <v>188</v>
+      </c>
+      <c r="M155" t="s">
+        <v>188</v>
+      </c>
+      <c r="N155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>32</v>
+      </c>
+      <c r="B156" t="s">
+        <v>59</v>
+      </c>
+      <c r="C156" t="s">
+        <v>231</v>
+      </c>
+      <c r="D156">
+        <v>143</v>
+      </c>
+      <c r="J156" t="s">
+        <v>189</v>
+      </c>
+      <c r="K156" t="s">
+        <v>188</v>
+      </c>
+      <c r="M156" t="s">
+        <v>188</v>
+      </c>
+      <c r="N156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>50</v>
+      </c>
+      <c r="B157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" t="s">
+        <v>231</v>
+      </c>
+      <c r="D157">
+        <v>66</v>
+      </c>
+      <c r="J157" t="s">
+        <v>189</v>
+      </c>
+      <c r="K157" t="s">
+        <v>188</v>
+      </c>
+      <c r="M157" t="s">
+        <v>188</v>
+      </c>
+      <c r="N157" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>29</v>
+      </c>
+      <c r="B158" t="s">
+        <v>42</v>
+      </c>
+      <c r="C158" t="s">
+        <v>231</v>
+      </c>
+      <c r="D158">
+        <v>1510</v>
+      </c>
+      <c r="I158" t="s">
+        <v>189</v>
+      </c>
+      <c r="K158" t="s">
+        <v>188</v>
+      </c>
+      <c r="M158" t="s">
+        <v>188</v>
+      </c>
+      <c r="N158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>57</v>
+      </c>
+      <c r="B159" t="s">
+        <v>136</v>
+      </c>
+      <c r="C159" t="s">
+        <v>231</v>
+      </c>
+      <c r="D159" s="1">
+        <v>285</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="I159" t="s">
+        <v>189</v>
+      </c>
+      <c r="K159" t="s">
+        <v>188</v>
+      </c>
+      <c r="M159" t="s">
+        <v>188</v>
+      </c>
+      <c r="N159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>54</v>
+      </c>
+      <c r="B160" t="s">
+        <v>124</v>
+      </c>
+      <c r="C160" t="s">
+        <v>231</v>
+      </c>
+      <c r="D160" s="1">
+        <v>147</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="I160" t="s">
+        <v>188</v>
+      </c>
+      <c r="J160" t="s">
+        <v>189</v>
+      </c>
+      <c r="K160" t="s">
+        <v>188</v>
+      </c>
+      <c r="M160" t="s">
+        <v>188</v>
+      </c>
+      <c r="N160" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>54</v>
+      </c>
+      <c r="B161" t="s">
+        <v>123</v>
+      </c>
+      <c r="C161" t="s">
+        <v>231</v>
+      </c>
+      <c r="D161" s="1">
+        <v>112</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="I161" t="s">
+        <v>189</v>
+      </c>
+      <c r="J161" t="s">
+        <v>189</v>
+      </c>
+      <c r="K161" t="s">
+        <v>188</v>
+      </c>
+      <c r="M161" t="s">
+        <v>188</v>
+      </c>
+      <c r="N161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <f>SUM(D164:D195)</f>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>17</v>
+      </c>
+      <c r="B164" t="s">
+        <v>215</v>
+      </c>
+      <c r="C164" t="s">
+        <v>232</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="L164" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>27</v>
+      </c>
+      <c r="B165" t="s">
+        <v>32</v>
+      </c>
+      <c r="C165" t="s">
+        <v>232</v>
+      </c>
+      <c r="D165">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>187</v>
+      </c>
+      <c r="K165" t="s">
+        <v>187</v>
+      </c>
+      <c r="L165" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>26</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" t="s">
+        <v>232</v>
+      </c>
+      <c r="D166">
+        <v>19</v>
+      </c>
+      <c r="J166" t="s">
+        <v>187</v>
+      </c>
+      <c r="L166" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>26</v>
+      </c>
+      <c r="B167" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" t="s">
+        <v>232</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="K167" t="s">
+        <v>187</v>
+      </c>
+      <c r="L167" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>28</v>
+      </c>
+      <c r="B168" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" t="s">
+        <v>232</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="K168" t="s">
+        <v>187</v>
+      </c>
+      <c r="L168" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>28</v>
+      </c>
+      <c r="B169" t="s">
+        <v>36</v>
+      </c>
+      <c r="C169" t="s">
+        <v>232</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="J169" t="s">
+        <v>187</v>
+      </c>
+      <c r="L169" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>49</v>
+      </c>
+      <c r="B170" t="s">
+        <v>99</v>
+      </c>
+      <c r="C170" t="s">
+        <v>232</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>187</v>
+      </c>
+      <c r="K170" t="s">
+        <v>187</v>
+      </c>
+      <c r="L170" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>51</v>
+      </c>
+      <c r="B171" t="s">
+        <v>106</v>
+      </c>
+      <c r="C171" t="s">
+        <v>232</v>
+      </c>
+      <c r="D171">
+        <v>18</v>
+      </c>
+      <c r="J171" t="s">
+        <v>187</v>
+      </c>
+      <c r="L171" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>51</v>
+      </c>
+      <c r="B172" t="s">
+        <v>105</v>
+      </c>
+      <c r="C172" t="s">
+        <v>232</v>
+      </c>
+      <c r="D172">
+        <v>11</v>
+      </c>
+      <c r="K172" t="s">
+        <v>187</v>
+      </c>
+      <c r="L172" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>17</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>232</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="M173" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>28</v>
+      </c>
+      <c r="B174" t="s">
+        <v>37</v>
+      </c>
+      <c r="C174" t="s">
+        <v>232</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>188</v>
+      </c>
+      <c r="M174" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>27</v>
+      </c>
+      <c r="B175" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" t="s">
+        <v>232</v>
+      </c>
+      <c r="D175">
+        <v>7</v>
+      </c>
+      <c r="I175" t="s">
+        <v>188</v>
+      </c>
+      <c r="K175" t="s">
+        <v>188</v>
+      </c>
+      <c r="M175" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>26</v>
+      </c>
+      <c r="B176" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" t="s">
+        <v>232</v>
+      </c>
+      <c r="D176">
+        <v>35</v>
+      </c>
+      <c r="I176" t="s">
+        <v>188</v>
+      </c>
+      <c r="M176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>28</v>
+      </c>
+      <c r="B177" t="s">
+        <v>39</v>
+      </c>
+      <c r="C177" t="s">
+        <v>232</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>188</v>
+      </c>
+      <c r="M177" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>49</v>
+      </c>
+      <c r="B178" t="s">
+        <v>100</v>
+      </c>
+      <c r="C178" t="s">
+        <v>232</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>188</v>
+      </c>
+      <c r="K178" t="s">
+        <v>188</v>
+      </c>
+      <c r="M178" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>51</v>
+      </c>
+      <c r="B179" t="s">
+        <v>109</v>
+      </c>
+      <c r="C179" t="s">
+        <v>232</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="I179" t="s">
+        <v>188</v>
+      </c>
+      <c r="M179" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>26</v>
+      </c>
+      <c r="B180" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D180">
+        <v>26</v>
+      </c>
+      <c r="K180" t="s">
+        <v>188</v>
+      </c>
+      <c r="M180" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>51</v>
+      </c>
+      <c r="B181" t="s">
+        <v>107</v>
+      </c>
+      <c r="C181" t="s">
+        <v>232</v>
+      </c>
+      <c r="D181">
+        <v>24</v>
+      </c>
+      <c r="K181" t="s">
+        <v>188</v>
+      </c>
+      <c r="M181" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>17</v>
+      </c>
+      <c r="B182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" t="s">
+        <v>232</v>
+      </c>
+      <c r="D182">
+        <v>51</v>
+      </c>
+      <c r="N182" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>28</v>
+      </c>
+      <c r="B183" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183" t="s">
+        <v>232</v>
+      </c>
+      <c r="D183">
+        <v>13</v>
+      </c>
+      <c r="J183" t="s">
+        <v>189</v>
+      </c>
+      <c r="N183" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" t="s">
+        <v>232</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
+      </c>
+      <c r="I184" t="s">
+        <v>189</v>
+      </c>
+      <c r="N184" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>27</v>
+      </c>
+      <c r="B185" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" t="s">
+        <v>232</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="I185" t="s">
+        <v>189</v>
+      </c>
+      <c r="J185" t="s">
+        <v>189</v>
+      </c>
+      <c r="N185" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>49</v>
+      </c>
+      <c r="B186" t="s">
+        <v>101</v>
+      </c>
+      <c r="C186" t="s">
+        <v>232</v>
+      </c>
+      <c r="D186">
+        <v>19</v>
+      </c>
+      <c r="I186" t="s">
+        <v>189</v>
+      </c>
+      <c r="J186" t="s">
+        <v>189</v>
+      </c>
+      <c r="N186" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>26</v>
+      </c>
+      <c r="B187" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" t="s">
+        <v>232</v>
+      </c>
+      <c r="D187">
+        <v>47</v>
+      </c>
+      <c r="I187" t="s">
+        <v>189</v>
+      </c>
+      <c r="N187" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>51</v>
+      </c>
+      <c r="B188" t="s">
+        <v>110</v>
+      </c>
+      <c r="C188" t="s">
+        <v>232</v>
+      </c>
+      <c r="D188">
+        <v>32</v>
+      </c>
+      <c r="I188" t="s">
+        <v>189</v>
+      </c>
+      <c r="N188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>26</v>
+      </c>
+      <c r="B189" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" t="s">
+        <v>232</v>
+      </c>
+      <c r="D189">
+        <v>59</v>
+      </c>
+      <c r="J189" t="s">
+        <v>189</v>
+      </c>
+      <c r="N189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>51</v>
+      </c>
+      <c r="B190" t="s">
+        <v>108</v>
+      </c>
+      <c r="C190" t="s">
+        <v>232</v>
+      </c>
+      <c r="D190">
+        <v>57</v>
+      </c>
+      <c r="J190" t="s">
+        <v>189</v>
+      </c>
+      <c r="N190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>16</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>232</v>
+      </c>
+      <c r="D191">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>25</v>
+      </c>
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" t="s">
+        <v>232</v>
+      </c>
+      <c r="D192">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>25</v>
+      </c>
+      <c r="B193" t="s">
+        <v>24</v>
+      </c>
+      <c r="C193" t="s">
+        <v>232</v>
+      </c>
+      <c r="D193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>25</v>
+      </c>
+      <c r="B194" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" t="s">
+        <v>232</v>
+      </c>
+      <c r="D194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>47</v>
+      </c>
+      <c r="B195" t="s">
+        <v>97</v>
+      </c>
+      <c r="C195" t="s">
+        <v>232</v>
+      </c>
+      <c r="D195">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>